--- a/add-matchs-tool/data/round_table_matchs1.xlsx
+++ b/add-matchs-tool/data/round_table_matchs1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C762DD-4914-6A48-8D30-625C73647B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FA04B-6C72-8149-B8A5-AAC3EA5A505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,7 +979,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="2" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="32">
         <v>1667736000</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="3" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="32">
         <v>1667743200</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="4" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4" s="32">
         <v>1667743200</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="5" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="32">
         <v>1667743200</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="6" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="32">
         <v>1667752200</v>
@@ -1489,6 +1489,9 @@
       <c r="AA6" s="32">
         <v>2.23</v>
       </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J15" s="30"/>

--- a/add-matchs-tool/data/round_table_matchs1.xlsx
+++ b/add-matchs-tool/data/round_table_matchs1.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0FA04B-6C72-8149-B8A5-AAC3EA5A505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB3561-06E7-884B-BDBE-7F78B49EF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Round table" sheetId="1" r:id="rId1"/>
-    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="test" sheetId="4" r:id="rId1"/>
+    <sheet name="Round table" sheetId="1" r:id="rId2"/>
+    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="0" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="0" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{4A9AD0B4-5107-4E09-AD2C-D56699159281}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="149">
   <si>
     <t>Type</t>
   </si>
@@ -340,55 +341,154 @@
     <t>odds_ft_away</t>
   </si>
   <si>
-    <t>CHELSEA</t>
-  </si>
-  <si>
-    <t>ARSENAL</t>
-  </si>
-  <si>
-    <t>Stamford Bridge</t>
-  </si>
-  <si>
     <t>home_icon</t>
   </si>
   <si>
     <t>away_icon</t>
   </si>
   <si>
-    <t>ASTON VILLA</t>
+    <t>QATAR</t>
   </si>
   <si>
-    <t>MANCHESTER UNITED</t>
+    <t>ECUADOR</t>
   </si>
   <si>
-    <t>Villa Park</t>
+    <t>Al Bayt Stadium</t>
   </si>
   <si>
-    <t>SOUTHAMPTON</t>
+    <t>ENGLAND</t>
   </si>
   <si>
-    <t>NEWCASTLE</t>
+    <t>IRAN</t>
   </si>
   <si>
-    <t>St. Mary's Stadium</t>
+    <t>Khalifa International Stadium</t>
   </si>
   <si>
-    <t>WEST HAM</t>
+    <t>SENEGAL</t>
   </si>
   <si>
-    <t>CRYSTAL PALACE</t>
+    <t>NETHERLANDS</t>
   </si>
   <si>
-    <t>London Stadium</t>
+    <t>Al-Thumama Stadium</t>
   </si>
   <si>
-    <t>TOTTENHAM HOTSPUR</t>
+    <t>USA</t>
   </si>
   <si>
-    <t>LIVERPOOL</t>
+    <t>WALES</t>
   </si>
   <si>
-    <t>Tottenham Hotspur Stadium</t>
+    <t>Ahmed bin Ali Stadium</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>Lusail Iconic Stadium</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>TUNISIA</t>
+  </si>
+  <si>
+    <t>Education City Stadium</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>Stadium 974</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>Al Janoub Stadium</t>
+  </si>
+  <si>
+    <t>MOROCCO</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CAMEROON</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>SOUTH KOREA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>GHANA</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>SUDEVA DELHI</t>
+  </si>
+  <si>
+    <t>KENKRE</t>
+  </si>
+  <si>
+    <t>LEOSTAR</t>
+  </si>
+  <si>
+    <t>BORAC</t>
+  </si>
+  <si>
+    <t>PROODEFFTIKI</t>
+  </si>
+  <si>
+    <t>KALLITHEA</t>
+  </si>
+  <si>
+    <t>ALMOPOS ARIDEAS</t>
+  </si>
+  <si>
+    <t>PANSWRRAIKOS</t>
   </si>
 </sst>
 </file>
@@ -501,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -621,15 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -648,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,8 +808,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -727,25 +817,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -757,6 +834,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,15 +1065,1533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7397E85-945B-0546-BEFA-D5BE54DFF40F}">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
+        <v>18</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1668423600</v>
+      </c>
+      <c r="C2" s="48">
+        <v>10857876</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="48">
+        <v>56746</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="48">
+        <v>82095</v>
+      </c>
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="32">
+        <v>3</v>
+      </c>
+      <c r="N2" s="32">
+        <v>0</v>
+      </c>
+      <c r="O2" s="32">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32">
+        <v>1.74</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S2" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="T2" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U2" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="V2" s="32">
+        <v>5.45</v>
+      </c>
+      <c r="W2" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="X2" s="32">
+        <v>2.94</v>
+      </c>
+      <c r="Y2" s="32">
+        <v>3.82</v>
+      </c>
+      <c r="Z2" s="32">
+        <v>3.48</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
+        <v>19</v>
+      </c>
+      <c r="B3" s="48">
+        <v>1668427200</v>
+      </c>
+      <c r="C3" s="48">
+        <v>10409568</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="48">
+        <v>39121</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="48">
+        <v>80691</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="32">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>1</v>
+      </c>
+      <c r="R3" s="32">
+        <v>1.86</v>
+      </c>
+      <c r="S3" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="T3" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U3" s="32">
+        <v>1.86</v>
+      </c>
+      <c r="V3" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="W3" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="X3" s="48">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>1.33</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>5.25</v>
+      </c>
+      <c r="AA3" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
+        <v>20</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1668430800</v>
+      </c>
+      <c r="C4" s="48">
+        <v>10855431</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="48">
+        <v>5448</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="48">
+        <v>20772</v>
+      </c>
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="32">
+        <v>3</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>1</v>
+      </c>
+      <c r="R4" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="S4" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U4" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="V4" s="32">
+        <v>6.03</v>
+      </c>
+      <c r="W4" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="X4" s="32">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>3.92</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>21</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1668431700</v>
+      </c>
+      <c r="C5" s="48">
+        <v>10857559</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="48">
+        <v>5448</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="48">
+        <v>20772</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="32">
+        <v>3</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>1.88</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>1</v>
+      </c>
+      <c r="R5" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="S5" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="T5" s="48">
+        <v>2</v>
+      </c>
+      <c r="U5" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="V5" s="32">
+        <v>3.32</v>
+      </c>
+      <c r="W5" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="X5" s="48">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>2.54</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>22</v>
+      </c>
+      <c r="B6" s="31">
+        <v>1669467600</v>
+      </c>
+      <c r="C6" s="31">
+        <v>10230542</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="32">
+        <v>7463</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1489</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
+        <v>2.09</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>1</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="S6" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="T6" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="31">
+        <v>1.88</v>
+      </c>
+      <c r="V6" s="31">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W6" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="X6" s="32">
+        <v>5.85</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>1.68</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31">
+        <v>23</v>
+      </c>
+      <c r="B7" s="31">
+        <v>1669478400</v>
+      </c>
+      <c r="C7" s="31">
+        <v>10230577</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="32">
+        <v>22</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="31">
+        <v>50</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="32">
+        <v>3</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R7" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S7" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="T7" s="31">
+        <v>2</v>
+      </c>
+      <c r="U7" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="V7" s="31">
+        <v>2.79</v>
+      </c>
+      <c r="W7" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="X7" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>3.45</v>
+      </c>
+      <c r="AA7" s="31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31">
+        <v>24</v>
+      </c>
+      <c r="B8" s="31">
+        <v>1669489200</v>
+      </c>
+      <c r="C8" s="31">
+        <v>10230540</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="32">
+        <v>24</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="31">
+        <v>6</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="32">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>2.17</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1.94</v>
+      </c>
+      <c r="T8" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V8" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="W8" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X8" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>1.63</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31">
+        <v>25</v>
+      </c>
+      <c r="B9" s="31">
+        <v>1669543200</v>
+      </c>
+      <c r="C9" s="31">
+        <v>10230564</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="32">
+        <v>19</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="31">
+        <v>15</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="32">
+        <v>3</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>1</v>
+      </c>
+      <c r="R9" s="32">
+        <v>2.13</v>
+      </c>
+      <c r="S9" s="32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T9" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U9" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="V9" s="31">
+        <v>2.66</v>
+      </c>
+      <c r="W9" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="X9" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>3.47</v>
+      </c>
+      <c r="AA9" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
+        <v>26</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1669554000</v>
+      </c>
+      <c r="C10" s="31">
+        <v>10230545</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="32">
+        <v>32</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1451</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="32">
+        <v>3</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+      <c r="O10" s="32">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>1</v>
+      </c>
+      <c r="R10" s="32">
+        <v>2</v>
+      </c>
+      <c r="S10" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T10" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U10" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="V10" s="31">
+        <v>2.23</v>
+      </c>
+      <c r="W10" s="32">
+        <v>2.36</v>
+      </c>
+      <c r="X10" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>1.56</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31">
+        <v>27</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1669564800</v>
+      </c>
+      <c r="C11" s="31">
+        <v>10230550</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="32">
+        <v>5</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="31">
+        <v>45</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="32">
+        <v>3</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1</v>
+      </c>
+      <c r="R11" s="32">
+        <v>1.83</v>
+      </c>
+      <c r="S11" s="32">
+        <v>1.84</v>
+      </c>
+      <c r="T11" s="31">
+        <v>2</v>
+      </c>
+      <c r="U11" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="V11" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="W11" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X11" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>3.98</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31">
+        <v>28</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1669575600</v>
+      </c>
+      <c r="C12" s="31">
+        <v>10230575</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="32">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="31">
+        <v>26</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>1</v>
+      </c>
+      <c r="R12" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="S12" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="T12" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U12" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V12" s="31">
+        <v>3.23</v>
+      </c>
+      <c r="W12" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X12" s="32">
+        <v>3.45</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>2.62</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>3.47</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
+        <v>29</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1669629600</v>
+      </c>
+      <c r="C13" s="31">
+        <v>10230568</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="32">
+        <v>7</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="31">
+        <v>955</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="32">
+        <v>3</v>
+      </c>
+      <c r="N13" s="32">
+        <v>0</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="31">
+        <v>2.08</v>
+      </c>
+      <c r="S13" s="32">
+        <v>1.87</v>
+      </c>
+      <c r="T13" s="31">
+        <v>2</v>
+      </c>
+      <c r="U13" s="31">
+        <v>2.11</v>
+      </c>
+      <c r="V13" s="31">
+        <v>5.55</v>
+      </c>
+      <c r="W13" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="X13" s="32">
+        <v>2.75</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>3.55</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>30</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1669640400</v>
+      </c>
+      <c r="C14" s="31">
+        <v>10230552</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="32">
+        <v>35</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="31">
+        <v>30</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" s="32">
+        <v>3</v>
+      </c>
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="31">
+        <v>2</v>
+      </c>
+      <c r="S14" s="32">
+        <v>1.97</v>
+      </c>
+      <c r="T14" s="31">
+        <v>2</v>
+      </c>
+      <c r="U14" s="31">
+        <v>1.96</v>
+      </c>
+      <c r="V14" s="31">
+        <v>3.52</v>
+      </c>
+      <c r="W14" s="32">
+        <v>2</v>
+      </c>
+      <c r="X14" s="32">
+        <v>3.94</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>2.77</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="AA14" s="31">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>31</v>
+      </c>
+      <c r="B15" s="31">
+        <v>1669651200</v>
+      </c>
+      <c r="C15" s="31">
+        <v>10230561</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="32">
+        <v>4</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="31">
+        <v>20</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="32">
+        <v>3</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>1</v>
+      </c>
+      <c r="R15" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="S15" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T15" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V15" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="W15" s="32">
+        <v>2.38</v>
+      </c>
+      <c r="X15" s="32">
+        <v>6.65</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>1.53</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>32</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1669662000</v>
+      </c>
+      <c r="C16" s="31">
+        <v>10230539</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="32">
+        <v>27</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="31">
+        <v>14</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="32">
+        <v>3</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="31">
+        <v>1.72</v>
+      </c>
+      <c r="Q16" s="31">
+        <v>1</v>
+      </c>
+      <c r="R16" s="31">
+        <v>2.23</v>
+      </c>
+      <c r="S16" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T16" s="31">
+        <v>2</v>
+      </c>
+      <c r="U16" s="31">
+        <v>1.98</v>
+      </c>
+      <c r="V16" s="31">
+        <v>2.85</v>
+      </c>
+      <c r="W16" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="X16" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>2.17</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
+        <v>33</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1669734000</v>
+      </c>
+      <c r="C17" s="31">
+        <v>10230551</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="32">
+        <v>21</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1043</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="32">
+        <v>3</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="31">
+        <v>1.71</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>1</v>
+      </c>
+      <c r="R17" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="S17" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T17" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U17" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V17" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="W17" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="X17" s="32">
+        <v>3.31</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>3.32</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31">
+        <v>34</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1669734000</v>
+      </c>
+      <c r="C18" s="31">
+        <v>10230538</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="32">
+        <v>36</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="31">
+        <v>7643</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="32">
+        <v>3</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="31">
+        <v>2.34</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="R18" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="S18" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="T18" s="31">
+        <v>3</v>
+      </c>
+      <c r="U18" s="31">
+        <v>2.06</v>
+      </c>
+      <c r="V18" s="31">
+        <v>1.83</v>
+      </c>
+      <c r="W18" s="32">
+        <v>2.66</v>
+      </c>
+      <c r="X18" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>1.36</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="AA18" s="31">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -992,530 +2604,4093 @@
     <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1668960000</v>
+      </c>
+      <c r="C2" s="48">
+        <v>10230541</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="48">
+        <v>7643</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="I2" s="48">
+        <v>21</v>
+      </c>
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+      <c r="M2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
-        <v>1667736000</v>
-      </c>
-      <c r="C2" s="32">
-        <v>10385376</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="32">
-        <v>2354</v>
-      </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="32">
-        <v>2536</v>
-      </c>
-      <c r="J2" s="32">
-        <v>0</v>
-      </c>
-      <c r="K2" s="32">
-        <v>0</v>
-      </c>
-      <c r="L2" s="33" t="s">
+      <c r="N2" s="32">
+        <v>0</v>
+      </c>
+      <c r="O2" s="32">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32">
+        <v>1.74</v>
+      </c>
+      <c r="Q2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S2" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="T2" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U2" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="V2" s="32">
+        <v>5.45</v>
+      </c>
+      <c r="W2" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="X2" s="32">
+        <v>2.94</v>
+      </c>
+      <c r="Y2" s="32">
+        <v>3.82</v>
+      </c>
+      <c r="Z2" s="32">
+        <v>3.48</v>
+      </c>
+      <c r="AA2" s="32">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48">
+        <v>1669035600</v>
+      </c>
+      <c r="C3" s="48">
+        <v>10230543</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="48">
+        <v>16</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="48">
+        <v>28</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="48">
+        <v>1</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>1</v>
+      </c>
+      <c r="R3" s="32">
+        <v>1.86</v>
+      </c>
+      <c r="S3" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="T3" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U3" s="32">
+        <v>1.86</v>
+      </c>
+      <c r="V3" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="W3" s="32">
+        <v>2.4</v>
+      </c>
+      <c r="X3" s="48">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="32">
+        <v>1.33</v>
+      </c>
+      <c r="Z3" s="32">
+        <v>5.25</v>
+      </c>
+      <c r="AA3" s="48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1669046400</v>
+      </c>
+      <c r="C4" s="48">
+        <v>10230533</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="48">
+        <v>1043</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="48">
+        <v>36</v>
+      </c>
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="48">
+        <v>1</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>1</v>
+      </c>
+      <c r="R4" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="S4" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="T4" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U4" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="V4" s="32">
+        <v>6.03</v>
+      </c>
+      <c r="W4" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="X4" s="32">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>3.92</v>
+      </c>
+      <c r="AA4" s="32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>4</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1669057200</v>
+      </c>
+      <c r="C5" s="48">
+        <v>10230548</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="48">
+        <v>37</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="48">
+        <v>7350</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="48">
+        <v>1</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>1.88</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>1</v>
+      </c>
+      <c r="R5" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="S5" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="T5" s="48">
+        <v>2</v>
+      </c>
+      <c r="U5" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="V5" s="32">
+        <v>3.32</v>
+      </c>
+      <c r="W5" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="X5" s="48">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>2.54</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>3.24</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48">
+        <v>1669111200</v>
+      </c>
+      <c r="C6" s="48">
+        <v>10230528</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="48">
+        <v>24</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="48">
+        <v>1489</v>
+      </c>
+      <c r="J6" s="48">
+        <v>0</v>
+      </c>
+      <c r="K6" s="48">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="48">
+        <v>1</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>2.21</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="S6" s="32">
+        <v>1.94</v>
+      </c>
+      <c r="T6" s="48">
+        <v>3</v>
+      </c>
+      <c r="U6" s="48">
+        <v>2</v>
+      </c>
+      <c r="V6" s="32">
+        <v>1.65</v>
+      </c>
+      <c r="W6" s="32">
+        <v>2.87</v>
+      </c>
+      <c r="X6" s="32">
+        <v>13.12</v>
+      </c>
+      <c r="Y6" s="32">
+        <v>1.2</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>8.1</v>
+      </c>
+      <c r="AA6" s="48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="48">
+        <v>6</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1669122000</v>
+      </c>
+      <c r="C7" s="48">
+        <v>10230576</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="48">
+        <v>50</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="48">
+        <v>56</v>
+      </c>
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="K7" s="48">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="48">
+        <v>1</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>1</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1.83</v>
+      </c>
+      <c r="S7" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="T7" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U7" s="48">
+        <v>2.1</v>
+      </c>
+      <c r="V7" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W7" s="32">
+        <v>2.34</v>
+      </c>
+      <c r="X7" s="32">
+        <v>7.76</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>1.48</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="AA7" s="48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="48">
+        <v>7</v>
+      </c>
+      <c r="B8" s="48">
+        <v>1669132800</v>
+      </c>
+      <c r="C8" s="48">
+        <v>10230565</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="48">
+        <v>6</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="48">
+        <v>7463</v>
+      </c>
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="48">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>1.78</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>2.16</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1.06</v>
+      </c>
+      <c r="T8" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="48">
+        <v>1.87</v>
+      </c>
+      <c r="V8" s="32">
+        <v>3.64</v>
+      </c>
+      <c r="W8" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="X8" s="32">
+        <v>3.51</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>2.83</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>3.19</v>
+      </c>
+      <c r="AA8" s="32">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48">
+        <v>1669143600</v>
+      </c>
+      <c r="C9" s="48">
+        <v>10230563</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="48">
+        <v>22</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="48">
+        <v>11</v>
+      </c>
+      <c r="J9" s="48">
+        <v>0</v>
+      </c>
+      <c r="K9" s="48">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="48">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="R9" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1.88</v>
+      </c>
+      <c r="T9" s="48">
+        <v>3</v>
+      </c>
+      <c r="U9" s="48">
+        <v>2.04</v>
+      </c>
+      <c r="V9" s="32">
+        <v>1.72</v>
+      </c>
+      <c r="W9" s="32">
+        <v>2.98</v>
+      </c>
+      <c r="X9" s="32">
+        <v>9.5</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>1.28</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>6.7</v>
+      </c>
+      <c r="AA9" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>1669197600</v>
+      </c>
+      <c r="C10" s="31">
+        <v>10230570</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1451</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="31">
+        <v>5</v>
+      </c>
+      <c r="J10" s="48">
+        <v>0</v>
+      </c>
+      <c r="K10" s="48">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="31">
+        <v>1</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+      <c r="O10" s="32">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R10" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="S10" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="T10" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U10" s="31">
+        <v>1.88</v>
+      </c>
+      <c r="V10" s="32">
+        <v>5.55</v>
+      </c>
+      <c r="W10" s="32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="X10" s="32">
+        <v>2.72</v>
+      </c>
+      <c r="Y10" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="AA10" s="31">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1669208400</v>
+      </c>
+      <c r="C11" s="31">
+        <v>10230562</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="31">
+        <v>26</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="31">
+        <v>19</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="31">
+        <v>1</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+      <c r="O11" s="32">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="R11" s="32">
+        <v>1.79</v>
+      </c>
+      <c r="S11" s="32">
+        <v>1.92</v>
+      </c>
+      <c r="T11" s="31">
+        <v>3</v>
+      </c>
+      <c r="U11" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V11" s="32">
+        <v>2.04</v>
+      </c>
+      <c r="W11" s="32">
+        <v>2.54</v>
+      </c>
+      <c r="X11" s="32">
+        <v>6.8</v>
+      </c>
+      <c r="Y11" s="32">
+        <v>1.45</v>
+      </c>
+      <c r="Z11" s="32">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="31">
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>1669219200</v>
+      </c>
+      <c r="C12" s="31">
+        <v>10230571</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="31">
+        <v>8</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="31">
+        <v>15</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="32">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
+        <v>1.81</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1</v>
+      </c>
+      <c r="R12" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="S12" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="T12" s="31">
+        <v>3</v>
+      </c>
+      <c r="U12" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="V12" s="32">
+        <v>1.7</v>
+      </c>
+      <c r="W12" s="32">
+        <v>2.77</v>
+      </c>
+      <c r="X12" s="32">
+        <v>13.25</v>
+      </c>
+      <c r="Y12" s="32">
+        <v>1.23</v>
+      </c>
+      <c r="Z12" s="32">
+        <v>7.3</v>
+      </c>
+      <c r="AA12" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1669230000</v>
+      </c>
+      <c r="C13" s="31">
+        <v>10230559</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="31">
+        <v>32</v>
+      </c>
+      <c r="F13" s="31">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="31">
+        <v>45</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <v>0</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="31">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>0</v>
+      </c>
+      <c r="O13" s="32">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>1</v>
+      </c>
+      <c r="R13" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S13" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T13" s="31">
+        <v>3</v>
+      </c>
+      <c r="U13" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="V13" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="W13" s="32">
+        <v>2.6</v>
+      </c>
+      <c r="X13" s="32">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="32">
+        <v>1.39</v>
+      </c>
+      <c r="Z13" s="32">
+        <v>5.45</v>
+      </c>
+      <c r="AA13" s="31">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>1669284000</v>
+      </c>
+      <c r="C14" s="31">
+        <v>10230569</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="31">
+        <v>20</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="31">
+        <v>7</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="31">
+        <v>1</v>
+      </c>
+      <c r="N14" s="32">
+        <v>0</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>1</v>
+      </c>
+      <c r="R14" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="S14" s="32">
+        <v>1.91</v>
+      </c>
+      <c r="T14" s="31">
+        <v>2</v>
+      </c>
+      <c r="U14" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="V14" s="32">
+        <v>2.61</v>
+      </c>
+      <c r="W14" s="32">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="X14" s="32">
+        <v>6.25</v>
+      </c>
+      <c r="Y14" s="32">
+        <v>1.84</v>
+      </c>
+      <c r="Z14" s="32">
+        <v>3.67</v>
+      </c>
+      <c r="AA14" s="31">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>1669294800</v>
+      </c>
+      <c r="C15" s="31">
+        <v>10230530</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="31">
+        <v>14</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="31">
+        <v>35</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <v>0</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>1.83</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>1</v>
+      </c>
+      <c r="R15" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="S15" s="32">
+        <v>2.13</v>
+      </c>
+      <c r="T15" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="V15" s="32">
+        <v>2.66</v>
+      </c>
+      <c r="W15" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="X15" s="32">
+        <v>5.78</v>
+      </c>
+      <c r="Y15" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="Z15" s="32">
+        <v>3.6</v>
+      </c>
+      <c r="AA15" s="31">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1669305600</v>
+      </c>
+      <c r="C16" s="31">
+        <v>10230534</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="31">
+        <v>27</v>
+      </c>
+      <c r="F16" s="31">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="31">
+        <v>30</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>1</v>
+      </c>
+      <c r="R16" s="32">
+        <v>1.78</v>
+      </c>
+      <c r="S16" s="32">
+        <v>1.97</v>
+      </c>
+      <c r="T16" s="31">
+        <v>2</v>
+      </c>
+      <c r="U16" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V16" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="W16" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="X16" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y16" s="32">
+        <v>1.52</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="AA16" s="31">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31">
+        <v>1669316400</v>
+      </c>
+      <c r="C17" s="31">
+        <v>10230567</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="31">
+        <v>4</v>
+      </c>
+      <c r="F17" s="31">
+        <v>0</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="31">
+        <v>955</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>1</v>
+      </c>
+      <c r="R17" s="32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S17" s="32">
+        <v>1.88</v>
+      </c>
+      <c r="T17" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U17" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="V17" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="W17" s="32">
+        <v>2.41</v>
+      </c>
+      <c r="X17" s="32">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="32">
+        <v>1.51</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>4.7</v>
+      </c>
+      <c r="AA17" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1669370400</v>
+      </c>
+      <c r="C18" s="31">
+        <v>10230556</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="31">
+        <v>7350</v>
+      </c>
+      <c r="F18" s="31">
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="31">
+        <v>28</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <v>0</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="31">
+        <v>2</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S18" s="32">
+        <v>1.89</v>
+      </c>
+      <c r="T18" s="31">
+        <v>2</v>
+      </c>
+      <c r="U18" s="31">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V18" s="32">
+        <v>3.03</v>
+      </c>
+      <c r="W18" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="X18" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="AA18" s="31">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31">
+        <v>1669381200</v>
+      </c>
+      <c r="C19" s="31">
+        <v>10230537</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="33">
+      <c r="E19" s="48">
+        <v>7643</v>
+      </c>
+      <c r="F19" s="31">
+        <v>0</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="48">
+        <v>1043</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <v>0</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="31">
+        <v>2</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+      <c r="P19" s="31">
+        <v>1.76</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>1</v>
+      </c>
+      <c r="R19" s="32">
+        <v>2.17</v>
+      </c>
+      <c r="S19" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="T19" s="31">
+        <v>2</v>
+      </c>
+      <c r="U19" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="V19" s="31">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="W19" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="X19" s="32">
+        <v>2.99</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="AA19" s="31">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31">
+        <v>1669392000</v>
+      </c>
+      <c r="C20" s="31">
+        <v>10230529</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="48">
+        <v>36</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="48">
+        <v>21</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <v>0</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="31">
+        <v>2</v>
+      </c>
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <v>0</v>
+      </c>
+      <c r="P20" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>1</v>
+      </c>
+      <c r="R20" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="S20" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="T20" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U20" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="V20" s="31">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W20" s="32">
+        <v>2.41</v>
+      </c>
+      <c r="X20" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="Y20" s="32">
+        <v>1.68</v>
+      </c>
+      <c r="Z20" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="AA20" s="31">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31">
+        <v>1669402800</v>
+      </c>
+      <c r="C21" s="31">
+        <v>10230557</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="48">
+        <v>16</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="48">
+        <v>37</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="31">
+        <v>0</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="31">
+        <v>2</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0</v>
+      </c>
+      <c r="P21" s="31">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>1</v>
+      </c>
+      <c r="R21" s="32">
+        <v>1.87</v>
+      </c>
+      <c r="S21" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="T21" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U21" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="V21" s="31">
+        <v>2.37</v>
+      </c>
+      <c r="W21" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X21" s="32">
+        <v>5.7</v>
+      </c>
+      <c r="Y21" s="32">
+        <v>1.71</v>
+      </c>
+      <c r="Z21" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA21" s="31">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31">
+        <v>1669456800</v>
+      </c>
+      <c r="C22" s="31">
+        <v>10230574</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="32">
+        <v>56</v>
+      </c>
+      <c r="F22" s="31">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="31">
+        <v>11</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <v>0</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="31">
+        <v>2</v>
+      </c>
+      <c r="N22" s="32">
+        <v>0</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0</v>
+      </c>
+      <c r="P22" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="32">
+        <v>2</v>
+      </c>
+      <c r="S22" s="32">
+        <v>1.97</v>
+      </c>
+      <c r="T22" s="31">
+        <v>2</v>
+      </c>
+      <c r="U22" s="31">
+        <v>1.96</v>
+      </c>
+      <c r="V22" s="31">
+        <v>3.8</v>
+      </c>
+      <c r="W22" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="X22" s="32">
+        <v>2.62</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>2.95</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>3.15</v>
+      </c>
+      <c r="AA22" s="31">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="31">
+        <v>1669467600</v>
+      </c>
+      <c r="C23" s="31">
+        <v>10230542</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="32">
+        <v>7463</v>
+      </c>
+      <c r="F23" s="31">
+        <v>0</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1489</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="31">
+        <v>0</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="31">
+        <v>2</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+      <c r="O23" s="32">
+        <v>0</v>
+      </c>
+      <c r="P23" s="31">
+        <v>2.09</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>1</v>
+      </c>
+      <c r="R23" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="S23" s="32">
+        <v>2.09</v>
+      </c>
+      <c r="T23" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U23" s="31">
+        <v>1.88</v>
+      </c>
+      <c r="V23" s="31">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="W23" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="X23" s="32">
+        <v>5.85</v>
+      </c>
+      <c r="Y23" s="32">
+        <v>1.68</v>
+      </c>
+      <c r="Z23" s="32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA23" s="31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="31">
+        <v>1669478400</v>
+      </c>
+      <c r="C24" s="31">
+        <v>10230577</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="32">
+        <v>22</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="31">
+        <v>50</v>
+      </c>
+      <c r="J24" s="31">
+        <v>0</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="31">
+        <v>2</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+      <c r="O24" s="32">
+        <v>0</v>
+      </c>
+      <c r="P24" s="31">
+        <v>1.83</v>
+      </c>
+      <c r="Q24" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S24" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="T24" s="31">
+        <v>2</v>
+      </c>
+      <c r="U24" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="V24" s="31">
+        <v>2.79</v>
+      </c>
+      <c r="W24" s="32">
+        <v>2.14</v>
+      </c>
+      <c r="X24" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="Z24" s="32">
+        <v>3.45</v>
+      </c>
+      <c r="AA24" s="31">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="31">
+        <v>1669489200</v>
+      </c>
+      <c r="C25" s="31">
+        <v>10230540</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="32">
+        <v>24</v>
+      </c>
+      <c r="F25" s="31">
+        <v>0</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="31">
+        <v>6</v>
+      </c>
+      <c r="J25" s="31">
+        <v>0</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="31">
+        <v>2</v>
+      </c>
+      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32">
+        <v>0</v>
+      </c>
+      <c r="P25" s="31">
+        <v>2.17</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>1</v>
+      </c>
+      <c r="R25" s="32">
+        <v>1.8</v>
+      </c>
+      <c r="S25" s="32">
+        <v>1.94</v>
+      </c>
+      <c r="T25" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U25" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V25" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="W25" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X25" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="Y25" s="32">
+        <v>1.63</v>
+      </c>
+      <c r="Z25" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="AA25" s="31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="31">
+        <v>1669543200</v>
+      </c>
+      <c r="C26" s="31">
+        <v>10230564</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="32">
+        <v>19</v>
+      </c>
+      <c r="F26" s="31">
+        <v>0</v>
+      </c>
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="31">
         <v>15</v>
       </c>
-      <c r="N2" s="33">
-        <v>0</v>
-      </c>
-      <c r="O2" s="33">
-        <v>0</v>
-      </c>
-      <c r="P2" s="33">
-        <v>1.91</v>
-      </c>
-      <c r="Q2" s="33">
+      <c r="J26" s="31">
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="31">
+        <v>2</v>
+      </c>
+      <c r="N26" s="32">
+        <v>0</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0</v>
+      </c>
+      <c r="P26" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="Q26" s="31">
         <v>1</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R26" s="32">
+        <v>2.13</v>
+      </c>
+      <c r="S26" s="32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T26" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U26" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="V26" s="31">
+        <v>2.66</v>
+      </c>
+      <c r="W26" s="32">
+        <v>2.11</v>
+      </c>
+      <c r="X26" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>1.93</v>
+      </c>
+      <c r="Z26" s="32">
+        <v>3.47</v>
+      </c>
+      <c r="AA26" s="31">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31">
+        <v>1669554000</v>
+      </c>
+      <c r="C27" s="31">
+        <v>10230545</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="32">
+        <v>32</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="31">
+        <v>1451</v>
+      </c>
+      <c r="J27" s="31">
+        <v>0</v>
+      </c>
+      <c r="K27" s="31">
+        <v>0</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="31">
         <v>2</v>
       </c>
-      <c r="S2" s="33">
+      <c r="N27" s="32">
+        <v>0</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0</v>
+      </c>
+      <c r="P27" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>1</v>
+      </c>
+      <c r="R27" s="32">
         <v>2</v>
       </c>
-      <c r="T2" s="33">
+      <c r="S27" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T27" s="31">
         <v>2.5</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U27" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="V27" s="31">
+        <v>2.23</v>
+      </c>
+      <c r="W27" s="32">
+        <v>2.36</v>
+      </c>
+      <c r="X27" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>1.56</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="AA27" s="31">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31">
+        <v>1669564800</v>
+      </c>
+      <c r="C28" s="31">
+        <v>10230550</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="32">
+        <v>5</v>
+      </c>
+      <c r="F28" s="31">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="31">
+        <v>45</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" s="31">
+        <v>2</v>
+      </c>
+      <c r="N28" s="32">
+        <v>0</v>
+      </c>
+      <c r="O28" s="32">
+        <v>0</v>
+      </c>
+      <c r="P28" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>1</v>
+      </c>
+      <c r="R28" s="32">
+        <v>1.83</v>
+      </c>
+      <c r="S28" s="32">
+        <v>1.84</v>
+      </c>
+      <c r="T28" s="31">
+        <v>2</v>
+      </c>
+      <c r="U28" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="V28" s="31">
+        <v>2.54</v>
+      </c>
+      <c r="W28" s="32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X28" s="32">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="Z28" s="32">
+        <v>3.98</v>
+      </c>
+      <c r="AA28" s="31">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31">
+        <v>1669575600</v>
+      </c>
+      <c r="C29" s="31">
+        <v>10230575</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="32">
+        <v>8</v>
+      </c>
+      <c r="F29" s="31">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="31">
+        <v>26</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M29" s="31">
+        <v>2</v>
+      </c>
+      <c r="N29" s="32">
+        <v>0</v>
+      </c>
+      <c r="O29" s="32">
+        <v>0</v>
+      </c>
+      <c r="P29" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1</v>
+      </c>
+      <c r="R29" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="S29" s="32">
         <v>1.99</v>
       </c>
-      <c r="V2" s="33">
+      <c r="T29" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U29" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V29" s="31">
+        <v>3.23</v>
+      </c>
+      <c r="W29" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X29" s="32">
+        <v>3.45</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>2.62</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>3.47</v>
+      </c>
+      <c r="AA29" s="31">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31">
+        <v>1669629600</v>
+      </c>
+      <c r="C30" s="31">
+        <v>10230568</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="32">
+        <v>7</v>
+      </c>
+      <c r="F30" s="31">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="31">
+        <v>955</v>
+      </c>
+      <c r="J30" s="31">
+        <v>0</v>
+      </c>
+      <c r="K30" s="31">
+        <v>0</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="31">
+        <v>2</v>
+      </c>
+      <c r="N30" s="32">
+        <v>0</v>
+      </c>
+      <c r="O30" s="32">
+        <v>0</v>
+      </c>
+      <c r="P30" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R30" s="31">
+        <v>2.08</v>
+      </c>
+      <c r="S30" s="32">
+        <v>1.87</v>
+      </c>
+      <c r="T30" s="31">
+        <v>2</v>
+      </c>
+      <c r="U30" s="31">
+        <v>2.11</v>
+      </c>
+      <c r="V30" s="31">
+        <v>5.55</v>
+      </c>
+      <c r="W30" s="32">
+        <v>2.08</v>
+      </c>
+      <c r="X30" s="32">
+        <v>2.75</v>
+      </c>
+      <c r="Y30" s="32">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Z30" s="32">
+        <v>3.55</v>
+      </c>
+      <c r="AA30" s="31">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="31">
+        <v>1669640400</v>
+      </c>
+      <c r="C31" s="31">
+        <v>10230552</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="32">
+        <v>35</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="31">
+        <v>2</v>
+      </c>
+      <c r="N31" s="32">
+        <v>0</v>
+      </c>
+      <c r="O31" s="32">
+        <v>0</v>
+      </c>
+      <c r="P31" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R31" s="31">
+        <v>2</v>
+      </c>
+      <c r="S31" s="32">
+        <v>1.97</v>
+      </c>
+      <c r="T31" s="31">
+        <v>2</v>
+      </c>
+      <c r="U31" s="31">
+        <v>1.96</v>
+      </c>
+      <c r="V31" s="31">
+        <v>3.52</v>
+      </c>
+      <c r="W31" s="32">
+        <v>2</v>
+      </c>
+      <c r="X31" s="32">
+        <v>3.94</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>2.77</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="AA31" s="31">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="31">
+        <v>1669651200</v>
+      </c>
+      <c r="C32" s="31">
+        <v>10230561</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="31">
+        <v>0</v>
+      </c>
+      <c r="G32" s="31">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="31">
+        <v>20</v>
+      </c>
+      <c r="J32" s="31">
+        <v>0</v>
+      </c>
+      <c r="K32" s="31">
+        <v>0</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="31">
+        <v>2</v>
+      </c>
+      <c r="N32" s="32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>1</v>
+      </c>
+      <c r="R32" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="S32" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T32" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U32" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V32" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="W32" s="32">
+        <v>2.38</v>
+      </c>
+      <c r="X32" s="32">
+        <v>6.65</v>
+      </c>
+      <c r="Y32" s="32">
+        <v>1.53</v>
+      </c>
+      <c r="Z32" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA32" s="31">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="31">
+        <v>1669662000</v>
+      </c>
+      <c r="C33" s="31">
+        <v>10230539</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="32">
+        <v>27</v>
+      </c>
+      <c r="F33" s="31">
+        <v>0</v>
+      </c>
+      <c r="G33" s="31">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="31">
+        <v>14</v>
+      </c>
+      <c r="J33" s="31">
+        <v>0</v>
+      </c>
+      <c r="K33" s="31">
+        <v>0</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="31">
+        <v>2</v>
+      </c>
+      <c r="N33" s="32">
+        <v>0</v>
+      </c>
+      <c r="O33" s="32">
+        <v>0</v>
+      </c>
+      <c r="P33" s="31">
+        <v>1.72</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>1</v>
+      </c>
+      <c r="R33" s="31">
+        <v>2.23</v>
+      </c>
+      <c r="S33" s="32">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="T33" s="31">
+        <v>2</v>
+      </c>
+      <c r="U33" s="31">
+        <v>1.98</v>
+      </c>
+      <c r="V33" s="31">
+        <v>2.85</v>
+      </c>
+      <c r="W33" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="X33" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>2.17</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>3.5</v>
+      </c>
+      <c r="AA33" s="31">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="31">
+        <v>1669734000</v>
+      </c>
+      <c r="C34" s="31">
+        <v>10230551</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="32">
+        <v>21</v>
+      </c>
+      <c r="F34" s="31">
+        <v>0</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="31">
+        <v>1043</v>
+      </c>
+      <c r="J34" s="31">
+        <v>0</v>
+      </c>
+      <c r="K34" s="31">
+        <v>0</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="31">
+        <v>3</v>
+      </c>
+      <c r="N34" s="32">
+        <v>0</v>
+      </c>
+      <c r="O34" s="32">
+        <v>0</v>
+      </c>
+      <c r="P34" s="31">
+        <v>1.71</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>1</v>
+      </c>
+      <c r="R34" s="31">
+        <v>2.16</v>
+      </c>
+      <c r="S34" s="32">
+        <v>1.96</v>
+      </c>
+      <c r="T34" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U34" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V34" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="W34" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="X34" s="32">
+        <v>3.31</v>
+      </c>
+      <c r="Y34" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="Z34" s="32">
         <v>3.32</v>
       </c>
-      <c r="W2" s="33">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="X2" s="33">
-        <v>3.47</v>
-      </c>
-      <c r="Y2" s="33">
-        <v>2.71</v>
-      </c>
-      <c r="Z2" s="33">
-        <v>3.53</v>
-      </c>
-      <c r="AA2" s="33">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+      <c r="AA34" s="31">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="31">
+        <v>1669734000</v>
+      </c>
+      <c r="C35" s="31">
+        <v>10230538</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="32">
+        <v>36</v>
+      </c>
+      <c r="F35" s="31">
+        <v>0</v>
+      </c>
+      <c r="G35" s="31">
+        <v>0</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="31">
+        <v>7643</v>
+      </c>
+      <c r="J35" s="31">
+        <v>0</v>
+      </c>
+      <c r="K35" s="31">
+        <v>0</v>
+      </c>
+      <c r="L35" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="31">
+        <v>3</v>
+      </c>
+      <c r="N35" s="32">
+        <v>0</v>
+      </c>
+      <c r="O35" s="32">
+        <v>0</v>
+      </c>
+      <c r="P35" s="31">
+        <v>2.34</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="R35" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="S35" s="32">
+        <v>1.85</v>
+      </c>
+      <c r="T35" s="31">
+        <v>3</v>
+      </c>
+      <c r="U35" s="31">
+        <v>2.06</v>
+      </c>
+      <c r="V35" s="31">
+        <v>1.83</v>
+      </c>
+      <c r="W35" s="32">
+        <v>2.66</v>
+      </c>
+      <c r="X35" s="32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Y35" s="32">
+        <v>1.36</v>
+      </c>
+      <c r="Z35" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="AA35" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="31">
+        <v>1669748400</v>
+      </c>
+      <c r="C36" s="31">
+        <v>10230536</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="32">
+        <v>28</v>
+      </c>
+      <c r="F36" s="31">
+        <v>0</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="31">
+        <v>37</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="31">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M36" s="31">
+        <v>3</v>
+      </c>
+      <c r="N36" s="32">
+        <v>0</v>
+      </c>
+      <c r="O36" s="32">
+        <v>0</v>
+      </c>
+      <c r="P36" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>1</v>
+      </c>
+      <c r="R36" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="S36" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="T36" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U36" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="V36" s="31">
+        <v>4</v>
+      </c>
+      <c r="W36" s="32">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="X36" s="32">
+        <v>2.81</v>
+      </c>
+      <c r="Y36" s="32">
+        <v>3.61</v>
+      </c>
+      <c r="Z36" s="32">
+        <v>3.55</v>
+      </c>
+      <c r="AA36" s="31">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="31">
+        <v>1669748400</v>
+      </c>
+      <c r="C37" s="31">
+        <v>10230532</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="32">
+        <v>7350</v>
+      </c>
+      <c r="F37" s="31">
+        <v>0</v>
+      </c>
+      <c r="G37" s="31">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="31">
+        <v>16</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0</v>
+      </c>
+      <c r="K37" s="31">
+        <v>0</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="31">
+        <v>3</v>
+      </c>
+      <c r="N37" s="32">
+        <v>0</v>
+      </c>
+      <c r="O37" s="32">
+        <v>0</v>
+      </c>
+      <c r="P37" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R37" s="31">
+        <v>3</v>
+      </c>
+      <c r="S37" s="32">
+        <v>1.51</v>
+      </c>
+      <c r="T37" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
-        <v>1667743200</v>
-      </c>
-      <c r="C3" s="32">
-        <v>10385379</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="33">
-        <v>2361</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32">
-        <v>0</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="33">
-        <v>2356</v>
-      </c>
-      <c r="J3" s="32">
-        <v>0</v>
-      </c>
-      <c r="K3" s="32">
-        <v>0</v>
-      </c>
-      <c r="L3" s="33" t="s">
+      <c r="U37" s="31">
+        <v>2.75</v>
+      </c>
+      <c r="V37" s="31">
+        <v>6.35</v>
+      </c>
+      <c r="W37" s="32">
+        <v>2.34</v>
+      </c>
+      <c r="X37" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="Y37" s="32">
+        <v>6.4</v>
+      </c>
+      <c r="Z37" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="AA37" s="31">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="31">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31">
+        <v>1669820400</v>
+      </c>
+      <c r="C38" s="31">
+        <v>10230560</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="32">
+        <v>11</v>
+      </c>
+      <c r="F38" s="31">
+        <v>0</v>
+      </c>
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="32">
+        <v>50</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0</v>
+      </c>
+      <c r="K38" s="31">
+        <v>0</v>
+      </c>
+      <c r="L38" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="31">
+        <v>3</v>
+      </c>
+      <c r="N38" s="32">
+        <v>0</v>
+      </c>
+      <c r="O38" s="32">
+        <v>0</v>
+      </c>
+      <c r="P38" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R38" s="31">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S38" s="32">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="T38" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U38" s="31">
+        <v>1.67</v>
+      </c>
+      <c r="V38" s="31">
+        <v>7.2</v>
+      </c>
+      <c r="W38" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="X38" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="Y38" s="32">
+        <v>6.9</v>
+      </c>
+      <c r="Z38" s="32">
+        <v>3.91</v>
+      </c>
+      <c r="AA38" s="31">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31">
+        <v>1669820400</v>
+      </c>
+      <c r="C39" s="31">
+        <v>10230555</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="32">
+        <v>56</v>
+      </c>
+      <c r="F39" s="31">
+        <v>0</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="32">
+        <v>22</v>
+      </c>
+      <c r="J39" s="31">
+        <v>0</v>
+      </c>
+      <c r="K39" s="31">
+        <v>0</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39" s="31">
+        <v>3</v>
+      </c>
+      <c r="N39" s="32">
+        <v>0</v>
+      </c>
+      <c r="O39" s="32">
+        <v>0</v>
+      </c>
+      <c r="P39" s="31">
+        <v>1.87</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>1</v>
+      </c>
+      <c r="R39" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="S39" s="32">
+        <v>1.95</v>
+      </c>
+      <c r="T39" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U39" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V39" s="31">
+        <v>13</v>
+      </c>
+      <c r="W39" s="32">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="X39" s="32">
+        <v>1.73</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>6.1</v>
+      </c>
+      <c r="AA39" s="31">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="31">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31">
+        <v>1669834800</v>
+      </c>
+      <c r="C40" s="31">
+        <v>10230547</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="32">
+        <v>7463</v>
+      </c>
+      <c r="F40" s="31">
+        <v>0</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" s="32">
+        <v>24</v>
+      </c>
+      <c r="J40" s="31">
+        <v>0</v>
+      </c>
+      <c r="K40" s="31">
+        <v>0</v>
+      </c>
+      <c r="L40" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M40" s="31">
+        <v>3</v>
+      </c>
+      <c r="N40" s="32">
+        <v>0</v>
+      </c>
+      <c r="O40" s="32">
+        <v>0</v>
+      </c>
+      <c r="P40" s="31">
+        <v>1.41</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R40" s="31">
+        <v>2.48</v>
+      </c>
+      <c r="S40" s="32">
+        <v>1.99</v>
+      </c>
+      <c r="T40" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U40" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="V40" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="W40" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X40" s="32">
+        <v>2.27</v>
+      </c>
+      <c r="Y40" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="Z40" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="AA40" s="31">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="31">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31">
+        <v>1669834800</v>
+      </c>
+      <c r="C41" s="31">
+        <v>10230546</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1489</v>
+      </c>
+      <c r="F41" s="31">
+        <v>0</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41" s="32">
+        <v>6</v>
+      </c>
+      <c r="J41" s="31">
+        <v>0</v>
+      </c>
+      <c r="K41" s="31">
+        <v>0</v>
+      </c>
+      <c r="L41" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="31">
+        <v>3</v>
+      </c>
+      <c r="N41" s="32">
+        <v>0</v>
+      </c>
+      <c r="O41" s="32">
+        <v>0</v>
+      </c>
+      <c r="P41" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="Q41" s="31">
+        <v>1</v>
+      </c>
+      <c r="R41" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="S41" s="32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T41" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U41" s="31">
+        <v>1.92</v>
+      </c>
+      <c r="V41" s="31">
+        <v>6.95</v>
+      </c>
+      <c r="W41" s="32">
+        <v>2.31</v>
+      </c>
+      <c r="X41" s="32">
+        <v>2.15</v>
+      </c>
+      <c r="Y41" s="32">
+        <v>6.9</v>
+      </c>
+      <c r="Z41" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="AA41" s="31">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="31">
+        <v>41</v>
+      </c>
+      <c r="B42" s="31">
+        <v>1669906800</v>
+      </c>
+      <c r="C42" s="31">
+        <v>10230531</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="32">
+        <v>45</v>
+      </c>
+      <c r="F42" s="31">
+        <v>0</v>
+      </c>
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="32">
+        <v>1451</v>
+      </c>
+      <c r="J42" s="31">
+        <v>0</v>
+      </c>
+      <c r="K42" s="31">
+        <v>0</v>
+      </c>
+      <c r="L42" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" s="31">
+        <v>3</v>
+      </c>
+      <c r="N42" s="32">
+        <v>0</v>
+      </c>
+      <c r="O42" s="32">
+        <v>0</v>
+      </c>
+      <c r="P42" s="31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q42" s="31">
+        <v>1</v>
+      </c>
+      <c r="R42" s="31">
+        <v>1.74</v>
+      </c>
+      <c r="S42" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="T42" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U42" s="31">
+        <v>1.72</v>
+      </c>
+      <c r="V42" s="31">
+        <v>4</v>
+      </c>
+      <c r="W42" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="X42" s="32">
+        <v>3.08</v>
+      </c>
+      <c r="Y42" s="32">
+        <v>3.35</v>
+      </c>
+      <c r="Z42" s="32">
+        <v>3.55</v>
+      </c>
+      <c r="AA42" s="31">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="31">
+        <v>42</v>
+      </c>
+      <c r="B43" s="31">
+        <v>1669906800</v>
+      </c>
+      <c r="C43" s="31">
+        <v>10230535</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="32">
+        <v>5</v>
+      </c>
+      <c r="F43" s="31">
+        <v>0</v>
+      </c>
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="32">
+        <v>32</v>
+      </c>
+      <c r="J43" s="31">
+        <v>0</v>
+      </c>
+      <c r="K43" s="31">
+        <v>0</v>
+      </c>
+      <c r="L43" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" s="31">
+        <v>3</v>
+      </c>
+      <c r="N43" s="32">
+        <v>0</v>
+      </c>
+      <c r="O43" s="32">
+        <v>0</v>
+      </c>
+      <c r="P43" s="31">
+        <v>1.41</v>
+      </c>
+      <c r="Q43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="R43" s="31">
+        <v>3</v>
+      </c>
+      <c r="S43" s="32">
+        <v>2.04</v>
+      </c>
+      <c r="T43" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U43" s="31">
+        <v>1.94</v>
+      </c>
+      <c r="V43" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="W43" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="X43" s="32">
+        <v>2.62</v>
+      </c>
+      <c r="Y43" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="Z43" s="32">
+        <v>3.88</v>
+      </c>
+      <c r="AA43" s="31">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="31">
+        <v>43</v>
+      </c>
+      <c r="B44" s="31">
+        <v>1669921200</v>
+      </c>
+      <c r="C44" s="31">
+        <v>10230573</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="32">
+        <v>15</v>
+      </c>
+      <c r="F44" s="31">
+        <v>0</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="32">
+        <v>26</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0</v>
+      </c>
+      <c r="K44" s="31">
+        <v>0</v>
+      </c>
+      <c r="L44" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M44" s="31">
+        <v>3</v>
+      </c>
+      <c r="N44" s="32">
+        <v>0</v>
+      </c>
+      <c r="O44" s="32">
+        <v>0</v>
+      </c>
+      <c r="P44" s="31">
+        <v>1.67</v>
+      </c>
+      <c r="Q44" s="31">
+        <v>1</v>
+      </c>
+      <c r="R44" s="31">
+        <v>2.25</v>
+      </c>
+      <c r="S44" s="32">
+        <v>1.73</v>
+      </c>
+      <c r="T44" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U44" s="31">
+        <v>2.29</v>
+      </c>
+      <c r="V44" s="31">
+        <v>9.4</v>
+      </c>
+      <c r="W44" s="32">
+        <v>2.65</v>
+      </c>
+      <c r="X44" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="Y44" s="32">
+        <v>14</v>
+      </c>
+      <c r="Z44" s="32">
+        <v>6</v>
+      </c>
+      <c r="AA44" s="31">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="31">
+        <v>44</v>
+      </c>
+      <c r="B45" s="31">
+        <v>1669921200</v>
+      </c>
+      <c r="C45" s="31">
+        <v>10230554</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="32">
+        <v>19</v>
+      </c>
+      <c r="F45" s="31">
+        <v>0</v>
+      </c>
+      <c r="G45" s="31">
+        <v>0</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="32">
+        <v>8</v>
+      </c>
+      <c r="J45" s="31">
+        <v>0</v>
+      </c>
+      <c r="K45" s="31">
+        <v>0</v>
+      </c>
+      <c r="L45" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="32">
-        <v>15</v>
-      </c>
-      <c r="N3" s="33">
-        <v>0</v>
-      </c>
-      <c r="O3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="33">
+      <c r="M45" s="31">
+        <v>3</v>
+      </c>
+      <c r="N45" s="32">
+        <v>0</v>
+      </c>
+      <c r="O45" s="32">
+        <v>0</v>
+      </c>
+      <c r="P45" s="31">
+        <v>1.31</v>
+      </c>
+      <c r="Q45" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="R45" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="S45" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="T45" s="31">
+        <v>3</v>
+      </c>
+      <c r="U45" s="31">
         <v>1.85</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="V45" s="31">
+        <v>8.5</v>
+      </c>
+      <c r="W45" s="32">
+        <v>2.72</v>
+      </c>
+      <c r="X45" s="32">
+        <v>1.78</v>
+      </c>
+      <c r="Y45" s="32">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="AA45" s="31">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="31">
+        <v>45</v>
+      </c>
+      <c r="B46" s="31">
+        <v>1669993200</v>
+      </c>
+      <c r="C46" s="31">
+        <v>10230549</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="32">
+        <v>30</v>
+      </c>
+      <c r="F46" s="31">
+        <v>0</v>
+      </c>
+      <c r="G46" s="31">
+        <v>0</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="32">
+        <v>14</v>
+      </c>
+      <c r="J46" s="31">
+        <v>0</v>
+      </c>
+      <c r="K46" s="31">
+        <v>0</v>
+      </c>
+      <c r="L46" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="31">
+        <v>3</v>
+      </c>
+      <c r="N46" s="32">
+        <v>0</v>
+      </c>
+      <c r="O46" s="32">
+        <v>0</v>
+      </c>
+      <c r="P46" s="31">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q46" s="31">
         <v>1</v>
       </c>
-      <c r="R3" s="33">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="S3" s="33">
-        <v>1.91</v>
-      </c>
-      <c r="T3" s="33">
+      <c r="R46" s="31">
+        <v>1.85</v>
+      </c>
+      <c r="S46" s="32">
+        <v>2.17</v>
+      </c>
+      <c r="T46" s="31">
         <v>2.5</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U46" s="31">
+        <v>1.83</v>
+      </c>
+      <c r="V46" s="31">
+        <v>5.55</v>
+      </c>
+      <c r="W46" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="X46" s="32">
+        <v>2.42</v>
+      </c>
+      <c r="Y46" s="32">
+        <v>5.2</v>
+      </c>
+      <c r="Z46" s="32">
+        <v>3.8</v>
+      </c>
+      <c r="AA46" s="31">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="31">
+        <v>46</v>
+      </c>
+      <c r="B47" s="31">
+        <v>1669993200</v>
+      </c>
+      <c r="C47" s="31">
+        <v>10230544</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="32">
+        <v>35</v>
+      </c>
+      <c r="F47" s="31">
+        <v>0</v>
+      </c>
+      <c r="G47" s="31">
+        <v>0</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="32">
+        <v>27</v>
+      </c>
+      <c r="J47" s="31">
+        <v>0</v>
+      </c>
+      <c r="K47" s="31">
+        <v>0</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="31">
+        <v>3</v>
+      </c>
+      <c r="N47" s="32">
+        <v>0</v>
+      </c>
+      <c r="O47" s="32">
+        <v>0</v>
+      </c>
+      <c r="P47" s="31">
+        <v>1.88</v>
+      </c>
+      <c r="Q47" s="31">
+        <v>1</v>
+      </c>
+      <c r="R47" s="31">
+        <v>2.02</v>
+      </c>
+      <c r="S47" s="32">
+        <v>1.98</v>
+      </c>
+      <c r="T47" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U47" s="31">
+        <v>1.95</v>
+      </c>
+      <c r="V47" s="31">
+        <v>10</v>
+      </c>
+      <c r="W47" s="32">
+        <v>2.46</v>
+      </c>
+      <c r="X47" s="32">
+        <v>1.89</v>
+      </c>
+      <c r="Y47" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Z47" s="32">
+        <v>5.4</v>
+      </c>
+      <c r="AA47" s="31">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="31">
+        <v>47</v>
+      </c>
+      <c r="B48" s="31">
+        <v>1670007600</v>
+      </c>
+      <c r="C48" s="31">
+        <v>10230553</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="32">
+        <v>7</v>
+      </c>
+      <c r="F48" s="31">
+        <v>0</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="32">
+        <v>4</v>
+      </c>
+      <c r="J48" s="31">
+        <v>0</v>
+      </c>
+      <c r="K48" s="31">
+        <v>0</v>
+      </c>
+      <c r="L48" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M48" s="31">
+        <v>3</v>
+      </c>
+      <c r="N48" s="32">
+        <v>0</v>
+      </c>
+      <c r="O48" s="32">
+        <v>0</v>
+      </c>
+      <c r="P48" s="31">
+        <v>2.6</v>
+      </c>
+      <c r="Q48" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="R48" s="31">
+        <v>1.53</v>
+      </c>
+      <c r="S48" s="32">
+        <v>2.23</v>
+      </c>
+      <c r="T48" s="31">
+        <v>3</v>
+      </c>
+      <c r="U48" s="31">
+        <v>1.78</v>
+      </c>
+      <c r="V48" s="31">
+        <v>8.9</v>
+      </c>
+      <c r="W48" s="32">
+        <v>2.65</v>
+      </c>
+      <c r="X48" s="32">
+        <v>1.84</v>
+      </c>
+      <c r="Y48" s="32">
+        <v>12</v>
+      </c>
+      <c r="Z48" s="32">
+        <v>5.55</v>
+      </c>
+      <c r="AA48" s="31">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="31">
+        <v>48</v>
+      </c>
+      <c r="B49" s="31">
+        <v>1670007600</v>
+      </c>
+      <c r="C49" s="31">
+        <v>10230558</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="32">
+        <v>955</v>
+      </c>
+      <c r="F49" s="31">
+        <v>0</v>
+      </c>
+      <c r="G49" s="31">
+        <v>0</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="32">
+        <v>20</v>
+      </c>
+      <c r="J49" s="31">
+        <v>0</v>
+      </c>
+      <c r="K49" s="31">
+        <v>0</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M49" s="31">
+        <v>3</v>
+      </c>
+      <c r="N49" s="32">
+        <v>0</v>
+      </c>
+      <c r="O49" s="32">
+        <v>0</v>
+      </c>
+      <c r="P49" s="31">
+        <v>1.97</v>
+      </c>
+      <c r="Q49" s="31">
+        <v>1</v>
+      </c>
+      <c r="R49" s="31">
+        <v>1.93</v>
+      </c>
+      <c r="S49" s="32">
         <v>2.04</v>
       </c>
-      <c r="V3" s="33">
-        <v>4.01</v>
-      </c>
-      <c r="W3" s="33">
-        <v>2.33</v>
-      </c>
-      <c r="X3" s="32">
-        <v>2.86</v>
-      </c>
-      <c r="Y3" s="33">
-        <v>3.65</v>
-      </c>
-      <c r="Z3" s="33">
-        <v>3.72</v>
-      </c>
-      <c r="AA3" s="32">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1667743200</v>
-      </c>
-      <c r="C4" s="32">
-        <v>10385371</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2539</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="33">
-        <v>2527</v>
-      </c>
-      <c r="J4" s="32">
-        <v>0</v>
-      </c>
-      <c r="K4" s="32">
-        <v>0</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="32">
-        <v>15</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <v>0</v>
-      </c>
-      <c r="P4" s="33">
+      <c r="T49" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U49" s="31">
         <v>1.92</v>
       </c>
-      <c r="Q4" s="32">
-        <v>1</v>
-      </c>
-      <c r="R4" s="33">
-        <v>2</v>
-      </c>
-      <c r="S4" s="33">
-        <v>1.94</v>
-      </c>
-      <c r="T4" s="33">
+      <c r="V49" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="W49" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="X49" s="32">
+        <v>3.18</v>
+      </c>
+      <c r="Y49" s="32">
+        <v>2.87</v>
+      </c>
+      <c r="Z49" s="32">
         <v>2.5</v>
       </c>
-      <c r="U4" s="33">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="V4" s="33">
-        <v>4.74</v>
-      </c>
-      <c r="W4" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="X4" s="33">
+      <c r="AA49" s="31">
         <v>2.61</v>
       </c>
-      <c r="Y4" s="33">
-        <v>4.25</v>
-      </c>
-      <c r="Z4" s="33">
-        <v>3.84</v>
-      </c>
-      <c r="AA4" s="33">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1667743200</v>
-      </c>
-      <c r="C5" s="32">
-        <v>10385372</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="33">
-        <v>2365</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="33">
-        <v>2537</v>
-      </c>
-      <c r="J5" s="32">
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
-        <v>0</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="M5" s="32">
-        <v>15</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="33">
-        <v>2.11</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>1</v>
-      </c>
-      <c r="R5" s="33">
-        <v>1.84</v>
-      </c>
-      <c r="S5" s="33">
-        <v>1.89</v>
-      </c>
-      <c r="T5" s="32">
-        <v>2</v>
-      </c>
-      <c r="U5" s="33">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="V5" s="33">
-        <v>2.68</v>
-      </c>
-      <c r="W5" s="33">
-        <v>2.21</v>
-      </c>
-      <c r="X5" s="32">
-        <v>4.93</v>
-      </c>
-      <c r="Y5" s="33">
-        <v>1.97</v>
-      </c>
-      <c r="Z5" s="33">
-        <v>3.66</v>
-      </c>
-      <c r="AA5" s="33">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1667752200</v>
-      </c>
-      <c r="C6" s="32">
-        <v>10385375</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="33">
-        <v>2366</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="33">
-        <v>2538</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>0</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="32">
-        <v>15</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="33">
-        <v>2.11</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="33">
-        <v>1.82</v>
-      </c>
-      <c r="S6" s="33">
-        <v>2.13</v>
-      </c>
-      <c r="T6" s="32">
-        <v>3</v>
-      </c>
-      <c r="U6" s="32">
-        <v>1.82</v>
-      </c>
-      <c r="V6" s="33">
-        <v>3.84</v>
-      </c>
-      <c r="W6" s="33">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="X6" s="33">
-        <v>2.76</v>
-      </c>
-      <c r="Y6" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="Z6" s="33">
-        <v>3.95</v>
-      </c>
-      <c r="AA6" s="32">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J15" s="30"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:I1934" xr:uid="{3CE6ED41-FC9F-E944-BB0B-2A449D894BBA}">
+        <filterColumn colId="0">
+          <filters>
+            <filter val="Beta Test Phase 1"/>
+            <filter val="KOLs"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{BE3B438B-38A7-4CD8-8BE7-9E446A9B2CDC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="D1:D2497" xr:uid="{83D6872A-6AA6-9A40-AEC5-BE026AAC5095}">
+      <autoFilter ref="D1:D2497" xr:uid="{4468D311-30DE-1B4F-AA98-9C7F605DBBC3}">
         <filterColumn colId="0">
           <filters>
             <filter val="bundle boxes"/>
             <filter val="Mystery Box"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{EE2F20B3-2CAB-4FD8-97BE-93C792EE71D7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:I1934" xr:uid="{BA11BEB3-878E-1C4D-85D2-B4B13068EF76}">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="Beta Test Phase 1"/>
-            <filter val="KOLs"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -1525,7 +6700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -1601,65 +6776,65 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="35"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="41" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="35"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -1691,7 +6866,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1725,7 +6900,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="D11" s="44"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +6924,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="44"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +6950,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="44"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1803,7 +6978,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +7005,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="44"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
@@ -1857,7 +7032,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="44"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -1884,7 +7059,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="44"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
@@ -1917,7 +7092,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -1942,7 +7117,7 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="44"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +7140,7 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +7163,7 @@
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="44"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="20" t="s">
         <v>1</v>
       </c>
@@ -11527,6 +16702,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="D10:D17"/>
@@ -11534,12 +16715,6 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/add-matchs-tool/data/round_table_matchs1.xlsx
+++ b/add-matchs-tool/data/round_table_matchs1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB3561-06E7-884B-BDBE-7F78B49EF016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFCA0E3-8F70-C347-8B01-B60217F68CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
   <si>
     <t>Type</t>
   </si>
@@ -467,28 +467,28 @@
     <t>SERBIA</t>
   </si>
   <si>
-    <t>SUDEVA DELHI</t>
+    <t>NEW ZEALAND</t>
   </si>
   <si>
-    <t>KENKRE</t>
+    <t>HENAN</t>
   </si>
   <si>
-    <t>LEOSTAR</t>
+    <t>SHANDONG</t>
   </si>
   <si>
-    <t>BORAC</t>
+    <t>SHAANXI CHANG</t>
   </si>
   <si>
-    <t>PROODEFFTIKI</t>
+    <t>JIANGSU</t>
   </si>
   <si>
-    <t>KALLITHEA</t>
+    <t>WUHAN</t>
   </si>
   <si>
-    <t>ALMOPOS ARIDEAS</t>
+    <t>SHANGHAI</t>
   </si>
   <si>
-    <t>PANSWRRAIKOS</t>
+    <t>THAILAND</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7397E85-945B-0546-BEFA-D5BE54DFF40F}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1168,13 +1168,13 @@
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="48">
-        <v>1668423600</v>
+        <v>1668488400</v>
       </c>
       <c r="C2" s="48">
-        <v>10857876</v>
+        <v>10859947</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>141</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I2" s="48">
-        <v>82095</v>
+        <v>11</v>
       </c>
       <c r="J2" s="48">
         <v>0</v>
@@ -1251,16 +1251,16 @@
     </row>
     <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B3" s="48">
-        <v>1668427200</v>
+        <v>1668492000</v>
       </c>
       <c r="C3" s="48">
-        <v>10409568</v>
+        <v>10853471</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="48">
         <v>39121</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="48">
         <v>80691</v>
@@ -1323,27 +1323,27 @@
         <v>11</v>
       </c>
       <c r="Y3" s="32">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="Z3" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="AA3" s="48">
         <v>5.25</v>
-      </c>
-      <c r="AA3" s="48">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B4" s="48">
-        <v>1668430800</v>
+        <v>1668492000</v>
       </c>
       <c r="C4" s="48">
-        <v>10855431</v>
+        <v>10853472</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E4" s="48">
         <v>5448</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I4" s="48">
         <v>20772</v>
@@ -1397,36 +1397,36 @@
         <v>2.09</v>
       </c>
       <c r="V4" s="32">
-        <v>6.03</v>
+        <v>4.03</v>
       </c>
       <c r="W4" s="32">
         <v>2.25</v>
       </c>
       <c r="X4" s="32">
-        <v>2.3199999999999998</v>
+        <v>3.32</v>
       </c>
       <c r="Y4" s="32">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="Z4" s="32">
         <v>3.92</v>
       </c>
       <c r="AA4" s="32">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="48">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B5" s="48">
-        <v>1668431700</v>
+        <v>1668499200</v>
       </c>
       <c r="C5" s="48">
-        <v>10857559</v>
+        <v>10853518</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E5" s="48">
         <v>5448</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I5" s="48">
         <v>20772</v>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="6" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B6" s="31">
-        <v>1669467600</v>
+        <v>1668501000</v>
       </c>
       <c r="C6" s="31">
-        <v>10230542</v>
+        <v>10728739</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E6" s="32">
-        <v>7463</v>
+        <v>11</v>
       </c>
       <c r="F6" s="31">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="I6" s="31">
         <v>1489</v>
@@ -1579,1002 +1579,6 @@
       </c>
       <c r="AA6" s="31">
         <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31">
-        <v>23</v>
-      </c>
-      <c r="B7" s="31">
-        <v>1669478400</v>
-      </c>
-      <c r="C7" s="31">
-        <v>10230577</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="32">
-        <v>22</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="31">
-        <v>50</v>
-      </c>
-      <c r="J7" s="31">
-        <v>0</v>
-      </c>
-      <c r="K7" s="31">
-        <v>0</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="32">
-        <v>3</v>
-      </c>
-      <c r="N7" s="32">
-        <v>0</v>
-      </c>
-      <c r="O7" s="32">
-        <v>0</v>
-      </c>
-      <c r="P7" s="31">
-        <v>1.83</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="R7" s="32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="S7" s="32">
-        <v>2.08</v>
-      </c>
-      <c r="T7" s="31">
-        <v>2</v>
-      </c>
-      <c r="U7" s="31">
-        <v>1.93</v>
-      </c>
-      <c r="V7" s="31">
-        <v>2.79</v>
-      </c>
-      <c r="W7" s="32">
-        <v>2.14</v>
-      </c>
-      <c r="X7" s="32">
-        <v>5.2</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="Z7" s="32">
-        <v>3.45</v>
-      </c>
-      <c r="AA7" s="31">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31">
-        <v>24</v>
-      </c>
-      <c r="B8" s="31">
-        <v>1669489200</v>
-      </c>
-      <c r="C8" s="31">
-        <v>10230540</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="32">
-        <v>24</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="31">
-        <v>6</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="32">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32">
-        <v>0</v>
-      </c>
-      <c r="O8" s="32">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
-        <v>2.17</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>1</v>
-      </c>
-      <c r="R8" s="32">
-        <v>1.8</v>
-      </c>
-      <c r="S8" s="32">
-        <v>1.94</v>
-      </c>
-      <c r="T8" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U8" s="31">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="V8" s="31">
-        <v>2.25</v>
-      </c>
-      <c r="W8" s="32">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X8" s="32">
-        <v>6.5</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>1.63</v>
-      </c>
-      <c r="Z8" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="AA8" s="31">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31">
-        <v>25</v>
-      </c>
-      <c r="B9" s="31">
-        <v>1669543200</v>
-      </c>
-      <c r="C9" s="31">
-        <v>10230564</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="32">
-        <v>19</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="31">
-        <v>15</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="31">
-        <v>0</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="32">
-        <v>3</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0</v>
-      </c>
-      <c r="O9" s="32">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
-        <v>1.85</v>
-      </c>
-      <c r="Q9" s="31">
-        <v>1</v>
-      </c>
-      <c r="R9" s="32">
-        <v>2.13</v>
-      </c>
-      <c r="S9" s="32">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="T9" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U9" s="31">
-        <v>1.85</v>
-      </c>
-      <c r="V9" s="31">
-        <v>2.66</v>
-      </c>
-      <c r="W9" s="32">
-        <v>2.11</v>
-      </c>
-      <c r="X9" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>1.93</v>
-      </c>
-      <c r="Z9" s="32">
-        <v>3.47</v>
-      </c>
-      <c r="AA9" s="31">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31">
-        <v>26</v>
-      </c>
-      <c r="B10" s="31">
-        <v>1669554000</v>
-      </c>
-      <c r="C10" s="31">
-        <v>10230545</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="32">
-        <v>32</v>
-      </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="31">
-        <v>1451</v>
-      </c>
-      <c r="J10" s="31">
-        <v>0</v>
-      </c>
-      <c r="K10" s="31">
-        <v>0</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" s="32">
-        <v>3</v>
-      </c>
-      <c r="N10" s="32">
-        <v>0</v>
-      </c>
-      <c r="O10" s="32">
-        <v>0</v>
-      </c>
-      <c r="P10" s="31">
-        <v>1.94</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>1</v>
-      </c>
-      <c r="R10" s="32">
-        <v>2</v>
-      </c>
-      <c r="S10" s="32">
-        <v>1.96</v>
-      </c>
-      <c r="T10" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U10" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="V10" s="31">
-        <v>2.23</v>
-      </c>
-      <c r="W10" s="32">
-        <v>2.36</v>
-      </c>
-      <c r="X10" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>1.56</v>
-      </c>
-      <c r="Z10" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="AA10" s="31">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31">
-        <v>27</v>
-      </c>
-      <c r="B11" s="31">
-        <v>1669564800</v>
-      </c>
-      <c r="C11" s="31">
-        <v>10230550</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="32">
-        <v>5</v>
-      </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I11" s="31">
-        <v>45</v>
-      </c>
-      <c r="J11" s="31">
-        <v>0</v>
-      </c>
-      <c r="K11" s="31">
-        <v>0</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="32">
-        <v>3</v>
-      </c>
-      <c r="N11" s="32">
-        <v>0</v>
-      </c>
-      <c r="O11" s="32">
-        <v>0</v>
-      </c>
-      <c r="P11" s="31">
-        <v>2.16</v>
-      </c>
-      <c r="Q11" s="31">
-        <v>1</v>
-      </c>
-      <c r="R11" s="32">
-        <v>1.83</v>
-      </c>
-      <c r="S11" s="32">
-        <v>1.84</v>
-      </c>
-      <c r="T11" s="31">
-        <v>2</v>
-      </c>
-      <c r="U11" s="31">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="V11" s="31">
-        <v>2.54</v>
-      </c>
-      <c r="W11" s="32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="X11" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Y11" s="32">
-        <v>1.85</v>
-      </c>
-      <c r="Z11" s="32">
-        <v>3.98</v>
-      </c>
-      <c r="AA11" s="31">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31">
-        <v>28</v>
-      </c>
-      <c r="B12" s="31">
-        <v>1669575600</v>
-      </c>
-      <c r="C12" s="31">
-        <v>10230575</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="32">
-        <v>8</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="31">
-        <v>26</v>
-      </c>
-      <c r="J12" s="31">
-        <v>0</v>
-      </c>
-      <c r="K12" s="31">
-        <v>0</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="32">
-        <v>3</v>
-      </c>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>1</v>
-      </c>
-      <c r="R12" s="32">
-        <v>1.95</v>
-      </c>
-      <c r="S12" s="32">
-        <v>1.99</v>
-      </c>
-      <c r="T12" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U12" s="31">
-        <v>1.95</v>
-      </c>
-      <c r="V12" s="31">
-        <v>3.23</v>
-      </c>
-      <c r="W12" s="32">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="X12" s="32">
-        <v>3.45</v>
-      </c>
-      <c r="Y12" s="32">
-        <v>2.62</v>
-      </c>
-      <c r="Z12" s="32">
-        <v>3.47</v>
-      </c>
-      <c r="AA12" s="31">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31">
-        <v>29</v>
-      </c>
-      <c r="B13" s="31">
-        <v>1669629600</v>
-      </c>
-      <c r="C13" s="31">
-        <v>10230568</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="32">
-        <v>7</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="31">
-        <v>955</v>
-      </c>
-      <c r="J13" s="31">
-        <v>0</v>
-      </c>
-      <c r="K13" s="31">
-        <v>0</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13" s="32">
-        <v>3</v>
-      </c>
-      <c r="N13" s="32">
-        <v>0</v>
-      </c>
-      <c r="O13" s="32">
-        <v>0</v>
-      </c>
-      <c r="P13" s="31">
-        <v>1.84</v>
-      </c>
-      <c r="Q13" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="R13" s="31">
-        <v>2.08</v>
-      </c>
-      <c r="S13" s="32">
-        <v>1.87</v>
-      </c>
-      <c r="T13" s="31">
-        <v>2</v>
-      </c>
-      <c r="U13" s="31">
-        <v>2.11</v>
-      </c>
-      <c r="V13" s="31">
-        <v>5.55</v>
-      </c>
-      <c r="W13" s="32">
-        <v>2.08</v>
-      </c>
-      <c r="X13" s="32">
-        <v>2.75</v>
-      </c>
-      <c r="Y13" s="32">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Z13" s="32">
-        <v>3.55</v>
-      </c>
-      <c r="AA13" s="31">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31">
-        <v>30</v>
-      </c>
-      <c r="B14" s="31">
-        <v>1669640400</v>
-      </c>
-      <c r="C14" s="31">
-        <v>10230552</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="32">
-        <v>35</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="31">
-        <v>30</v>
-      </c>
-      <c r="J14" s="31">
-        <v>0</v>
-      </c>
-      <c r="K14" s="31">
-        <v>0</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M14" s="32">
-        <v>3</v>
-      </c>
-      <c r="N14" s="32">
-        <v>0</v>
-      </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="31">
-        <v>1.92</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="R14" s="31">
-        <v>2</v>
-      </c>
-      <c r="S14" s="32">
-        <v>1.97</v>
-      </c>
-      <c r="T14" s="31">
-        <v>2</v>
-      </c>
-      <c r="U14" s="31">
-        <v>1.96</v>
-      </c>
-      <c r="V14" s="31">
-        <v>3.52</v>
-      </c>
-      <c r="W14" s="32">
-        <v>2</v>
-      </c>
-      <c r="X14" s="32">
-        <v>3.94</v>
-      </c>
-      <c r="Y14" s="32">
-        <v>2.77</v>
-      </c>
-      <c r="Z14" s="32">
-        <v>3.05</v>
-      </c>
-      <c r="AA14" s="31">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31">
-        <v>31</v>
-      </c>
-      <c r="B15" s="31">
-        <v>1669651200</v>
-      </c>
-      <c r="C15" s="31">
-        <v>10230561</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="32">
-        <v>4</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="31">
-        <v>20</v>
-      </c>
-      <c r="J15" s="31">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
-        <v>0</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="32">
-        <v>3</v>
-      </c>
-      <c r="N15" s="32">
-        <v>0</v>
-      </c>
-      <c r="O15" s="32">
-        <v>0</v>
-      </c>
-      <c r="P15" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>1</v>
-      </c>
-      <c r="R15" s="31">
-        <v>1.94</v>
-      </c>
-      <c r="S15" s="32">
-        <v>1.96</v>
-      </c>
-      <c r="T15" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U15" s="31">
-        <v>1.95</v>
-      </c>
-      <c r="V15" s="31">
-        <v>2.25</v>
-      </c>
-      <c r="W15" s="32">
-        <v>2.38</v>
-      </c>
-      <c r="X15" s="32">
-        <v>6.65</v>
-      </c>
-      <c r="Y15" s="32">
-        <v>1.53</v>
-      </c>
-      <c r="Z15" s="32">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA15" s="31">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
-        <v>32</v>
-      </c>
-      <c r="B16" s="31">
-        <v>1669662000</v>
-      </c>
-      <c r="C16" s="31">
-        <v>10230539</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="32">
-        <v>27</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="31">
-        <v>14</v>
-      </c>
-      <c r="J16" s="31">
-        <v>0</v>
-      </c>
-      <c r="K16" s="31">
-        <v>0</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="32">
-        <v>3</v>
-      </c>
-      <c r="N16" s="32">
-        <v>0</v>
-      </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="31">
-        <v>1.72</v>
-      </c>
-      <c r="Q16" s="31">
-        <v>1</v>
-      </c>
-      <c r="R16" s="31">
-        <v>2.23</v>
-      </c>
-      <c r="S16" s="32">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="T16" s="31">
-        <v>2</v>
-      </c>
-      <c r="U16" s="31">
-        <v>1.98</v>
-      </c>
-      <c r="V16" s="31">
-        <v>2.85</v>
-      </c>
-      <c r="W16" s="32">
-        <v>2.15</v>
-      </c>
-      <c r="X16" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="Y16" s="32">
-        <v>2.17</v>
-      </c>
-      <c r="Z16" s="32">
-        <v>3.5</v>
-      </c>
-      <c r="AA16" s="31">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31">
-        <v>33</v>
-      </c>
-      <c r="B17" s="31">
-        <v>1669734000</v>
-      </c>
-      <c r="C17" s="31">
-        <v>10230551</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="32">
-        <v>21</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="31">
-        <v>1043</v>
-      </c>
-      <c r="J17" s="31">
-        <v>0</v>
-      </c>
-      <c r="K17" s="31">
-        <v>0</v>
-      </c>
-      <c r="L17" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="32">
-        <v>3</v>
-      </c>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="32">
-        <v>0</v>
-      </c>
-      <c r="P17" s="31">
-        <v>1.71</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>1</v>
-      </c>
-      <c r="R17" s="31">
-        <v>2.16</v>
-      </c>
-      <c r="S17" s="32">
-        <v>1.96</v>
-      </c>
-      <c r="T17" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U17" s="31">
-        <v>1.95</v>
-      </c>
-      <c r="V17" s="31">
-        <v>3.6</v>
-      </c>
-      <c r="W17" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="X17" s="32">
-        <v>3.31</v>
-      </c>
-      <c r="Y17" s="32">
-        <v>3.05</v>
-      </c>
-      <c r="Z17" s="32">
-        <v>3.32</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31">
-        <v>34</v>
-      </c>
-      <c r="B18" s="31">
-        <v>1669734000</v>
-      </c>
-      <c r="C18" s="31">
-        <v>10230538</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="32">
-        <v>36</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="31">
-        <v>7643</v>
-      </c>
-      <c r="J18" s="31">
-        <v>0</v>
-      </c>
-      <c r="K18" s="31">
-        <v>0</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="32">
-        <v>3</v>
-      </c>
-      <c r="N18" s="32">
-        <v>0</v>
-      </c>
-      <c r="O18" s="32">
-        <v>0</v>
-      </c>
-      <c r="P18" s="31">
-        <v>2.34</v>
-      </c>
-      <c r="Q18" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="R18" s="31">
-        <v>1.7</v>
-      </c>
-      <c r="S18" s="32">
-        <v>1.85</v>
-      </c>
-      <c r="T18" s="31">
-        <v>3</v>
-      </c>
-      <c r="U18" s="31">
-        <v>2.06</v>
-      </c>
-      <c r="V18" s="31">
-        <v>1.83</v>
-      </c>
-      <c r="W18" s="32">
-        <v>2.66</v>
-      </c>
-      <c r="X18" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="Y18" s="32">
-        <v>1.36</v>
-      </c>
-      <c r="Z18" s="32">
-        <v>5.6</v>
-      </c>
-      <c r="AA18" s="31">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2590,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/add-matchs-tool/data/round_table_matchs1.xlsx
+++ b/add-matchs-tool/data/round_table_matchs1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFCA0E3-8F70-C347-8B01-B60217F68CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5161221-5F9A-6C40-B840-50C8090D5B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="4" r:id="rId1"/>
-    <sheet name="Round table" sheetId="1" r:id="rId2"/>
-    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
+    <sheet name="Round table" sheetId="1" r:id="rId3"/>
+    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="146">
   <si>
     <t>Type</t>
   </si>
@@ -467,28 +468,19 @@
     <t>SERBIA</t>
   </si>
   <si>
-    <t>NEW ZEALAND</t>
+    <t>Trang admin</t>
   </si>
   <si>
-    <t>HENAN</t>
+    <t>Api log FE error</t>
   </si>
   <si>
-    <t>SHANDONG</t>
+    <t>Xem history của người chơi khác</t>
   </si>
   <si>
-    <t>SHAANXI CHANG</t>
+    <t>Leaderborad history responsive</t>
   </si>
   <si>
-    <t>JIANGSU</t>
-  </si>
-  <si>
-    <t>WUHAN</t>
-  </si>
-  <si>
-    <t>SHANGHAI</t>
-  </si>
-  <si>
-    <t>THAILAND</t>
+    <t>Fix bug invaid nonce</t>
   </si>
 </sst>
 </file>
@@ -817,7 +809,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -851,6 +842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,23 +1057,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7397E85-945B-0546-BEFA-D5BE54DFF40F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902AC12-1A76-1B44-AEED-7468B00A6025}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:27" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
@@ -1166,45 +1149,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
-        <v>35</v>
-      </c>
-      <c r="B2" s="48">
-        <v>1668488400</v>
-      </c>
-      <c r="C2" s="48">
-        <v>10859947</v>
+    <row r="2" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47">
+        <v>101</v>
+      </c>
+      <c r="B2" s="47">
+        <v>1668960000</v>
+      </c>
+      <c r="C2" s="47">
+        <v>10230541</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="48">
-        <v>56746</v>
-      </c>
-      <c r="F2" s="48">
-        <v>0</v>
-      </c>
-      <c r="G2" s="48">
+        <v>101</v>
+      </c>
+      <c r="E2" s="47">
+        <v>7643</v>
+      </c>
+      <c r="F2" s="47">
+        <v>0</v>
+      </c>
+      <c r="G2" s="47">
         <v>0</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="48">
-        <v>11</v>
-      </c>
-      <c r="J2" s="48">
-        <v>0</v>
-      </c>
-      <c r="K2" s="48">
+        <v>102</v>
+      </c>
+      <c r="I2" s="47">
+        <v>21</v>
+      </c>
+      <c r="J2" s="47">
+        <v>0</v>
+      </c>
+      <c r="K2" s="47">
         <v>0</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="32">
         <v>0</v>
@@ -1249,45 +1232,45 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48">
-        <v>36</v>
-      </c>
-      <c r="B3" s="48">
-        <v>1668492000</v>
-      </c>
-      <c r="C3" s="48">
-        <v>10853471</v>
+    <row r="3" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47">
+        <v>102</v>
+      </c>
+      <c r="B3" s="47">
+        <v>1669035600</v>
+      </c>
+      <c r="C3" s="47">
+        <v>10230543</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="48">
-        <v>39121</v>
-      </c>
-      <c r="F3" s="48">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48">
+        <v>104</v>
+      </c>
+      <c r="E3" s="47">
+        <v>16</v>
+      </c>
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="47">
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="48">
-        <v>80691</v>
-      </c>
-      <c r="J3" s="48">
-        <v>0</v>
-      </c>
-      <c r="K3" s="48">
+        <v>105</v>
+      </c>
+      <c r="I3" s="47">
+        <v>28</v>
+      </c>
+      <c r="J3" s="47">
+        <v>0</v>
+      </c>
+      <c r="K3" s="47">
         <v>0</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="32">
-        <v>3</v>
+      <c r="M3" s="47">
+        <v>1</v>
       </c>
       <c r="N3" s="32">
         <v>0</v>
@@ -1296,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="32">
-        <v>2.12</v>
-      </c>
-      <c r="Q3" s="48">
-        <v>1</v>
+        <v>1.56</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>0.5</v>
       </c>
       <c r="R3" s="32">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="S3" s="32">
         <v>2.09</v>
@@ -1319,58 +1302,58 @@
       <c r="W3" s="32">
         <v>2.4</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="47">
         <v>11</v>
       </c>
       <c r="Y3" s="32">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="Z3" s="32">
-        <v>2.25</v>
-      </c>
-      <c r="AA3" s="48">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
-        <v>37</v>
-      </c>
-      <c r="B4" s="48">
-        <v>1668492000</v>
-      </c>
-      <c r="C4" s="48">
-        <v>10853472</v>
+      <c r="AA3" s="47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47">
+        <v>103</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1669046400</v>
+      </c>
+      <c r="C4" s="47">
+        <v>10230533</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="48">
-        <v>5448</v>
-      </c>
-      <c r="F4" s="48">
-        <v>0</v>
-      </c>
-      <c r="G4" s="48">
+        <v>107</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1043</v>
+      </c>
+      <c r="F4" s="47">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47">
         <v>0</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="48">
-        <v>20772</v>
-      </c>
-      <c r="J4" s="48">
-        <v>0</v>
-      </c>
-      <c r="K4" s="48">
+        <v>108</v>
+      </c>
+      <c r="I4" s="47">
+        <v>36</v>
+      </c>
+      <c r="J4" s="47">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
         <v>0</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="32">
-        <v>3</v>
+      <c r="M4" s="47">
+        <v>1</v>
       </c>
       <c r="N4" s="32">
         <v>0</v>
@@ -1379,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="32">
-        <v>2.06</v>
-      </c>
-      <c r="Q4" s="48">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>0.5</v>
       </c>
       <c r="R4" s="32">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="S4" s="32">
         <v>1.85</v>
@@ -1397,63 +1380,63 @@
         <v>2.09</v>
       </c>
       <c r="V4" s="32">
-        <v>4.03</v>
+        <v>6.03</v>
       </c>
       <c r="W4" s="32">
         <v>2.25</v>
       </c>
       <c r="X4" s="32">
-        <v>3.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="Y4" s="32">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="Z4" s="32">
         <v>3.92</v>
       </c>
       <c r="AA4" s="32">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
-        <v>38</v>
-      </c>
-      <c r="B5" s="48">
-        <v>1668499200</v>
-      </c>
-      <c r="C5" s="48">
-        <v>10853518</v>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47">
+        <v>104</v>
+      </c>
+      <c r="B5" s="47">
+        <v>1669057200</v>
+      </c>
+      <c r="C5" s="47">
+        <v>10230548</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="48">
-        <v>5448</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48">
+        <v>110</v>
+      </c>
+      <c r="E5" s="47">
+        <v>37</v>
+      </c>
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47">
         <v>0</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="48">
-        <v>20772</v>
-      </c>
-      <c r="J5" s="48">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48">
+        <v>111</v>
+      </c>
+      <c r="I5" s="47">
+        <v>7350</v>
+      </c>
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
         <v>0</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="32">
-        <v>3</v>
+      <c r="M5" s="47">
+        <v>1</v>
       </c>
       <c r="N5" s="32">
         <v>0</v>
@@ -1462,22 +1445,22 @@
         <v>0</v>
       </c>
       <c r="P5" s="32">
-        <v>1.88</v>
-      </c>
-      <c r="Q5" s="48">
-        <v>1</v>
+        <v>1.6</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>0.5</v>
       </c>
       <c r="R5" s="32">
-        <v>2.11</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="S5" s="32">
-        <v>1.9</v>
-      </c>
-      <c r="T5" s="48">
-        <v>2</v>
+        <v>1.55</v>
+      </c>
+      <c r="T5" s="47">
+        <v>1.5</v>
       </c>
       <c r="U5" s="32">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="V5" s="32">
         <v>3.32</v>
@@ -1485,7 +1468,7 @@
       <c r="W5" s="32">
         <v>2.06</v>
       </c>
-      <c r="X5" s="48">
+      <c r="X5" s="47">
         <v>4</v>
       </c>
       <c r="Y5" s="32">
@@ -1498,45 +1481,45 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31">
-        <v>39</v>
-      </c>
-      <c r="B6" s="31">
-        <v>1668501000</v>
-      </c>
-      <c r="C6" s="31">
-        <v>10728739</v>
+    <row r="6" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="47">
+        <v>105</v>
+      </c>
+      <c r="B6" s="47">
+        <v>1669111200</v>
+      </c>
+      <c r="C6" s="47">
+        <v>10230528</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="32">
-        <v>11</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31">
+        <v>113</v>
+      </c>
+      <c r="E6" s="47">
+        <v>24</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="31">
+        <v>114</v>
+      </c>
+      <c r="I6" s="47">
         <v>1489</v>
       </c>
-      <c r="J6" s="31">
-        <v>0</v>
-      </c>
-      <c r="K6" s="31">
+      <c r="J6" s="47">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
         <v>0</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="32">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="M6" s="47">
+        <v>1</v>
       </c>
       <c r="N6" s="32">
         <v>0</v>
@@ -1544,41 +1527,41 @@
       <c r="O6" s="32">
         <v>0</v>
       </c>
-      <c r="P6" s="31">
-        <v>2.09</v>
+      <c r="P6" s="32">
+        <v>2.59</v>
       </c>
       <c r="Q6" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R6" s="32">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="S6" s="32">
-        <v>2.09</v>
-      </c>
-      <c r="T6" s="31">
+        <v>1.69</v>
+      </c>
+      <c r="T6" s="47">
         <v>2.5</v>
       </c>
-      <c r="U6" s="31">
-        <v>1.88</v>
-      </c>
-      <c r="V6" s="31">
-        <v>2.3199999999999998</v>
+      <c r="U6" s="47">
+        <v>2.35</v>
+      </c>
+      <c r="V6" s="32">
+        <v>1.65</v>
       </c>
       <c r="W6" s="32">
-        <v>2.27</v>
+        <v>2.87</v>
       </c>
       <c r="X6" s="32">
-        <v>5.85</v>
+        <v>13.12</v>
       </c>
       <c r="Y6" s="32">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="Z6" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AA6" s="31">
-        <v>6.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="AA6" s="47">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1587,6 +1570,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEC6845-7DF7-BD41-A648-C34CD983C22E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="87.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1594,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1691,38 +1717,38 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
+    <row r="2" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>1668960000</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>10230541</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="47">
         <v>7643</v>
       </c>
-      <c r="F2" s="48">
-        <v>0</v>
-      </c>
-      <c r="G2" s="48">
+      <c r="F2" s="47">
+        <v>0</v>
+      </c>
+      <c r="G2" s="47">
         <v>0</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="47">
         <v>21</v>
       </c>
-      <c r="J2" s="48">
-        <v>0</v>
-      </c>
-      <c r="K2" s="48">
+      <c r="J2" s="47">
+        <v>0</v>
+      </c>
+      <c r="K2" s="47">
         <v>0</v>
       </c>
       <c r="L2" s="32" t="s">
@@ -1774,44 +1800,44 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48">
+    <row r="3" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <v>1669035600</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>10230543</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="47">
         <v>16</v>
       </c>
-      <c r="F3" s="48">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48">
+      <c r="F3" s="47">
+        <v>0</v>
+      </c>
+      <c r="G3" s="47">
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="47">
         <v>28</v>
       </c>
-      <c r="J3" s="48">
-        <v>0</v>
-      </c>
-      <c r="K3" s="48">
+      <c r="J3" s="47">
+        <v>0</v>
+      </c>
+      <c r="K3" s="47">
         <v>0</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="47">
         <v>1</v>
       </c>
       <c r="N3" s="32">
@@ -1821,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="32">
-        <v>2.12</v>
-      </c>
-      <c r="Q3" s="48">
-        <v>1</v>
+        <v>1.56</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>0.5</v>
       </c>
       <c r="R3" s="32">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="S3" s="32">
         <v>2.09</v>
@@ -1844,7 +1870,7 @@
       <c r="W3" s="32">
         <v>2.4</v>
       </c>
-      <c r="X3" s="48">
+      <c r="X3" s="47">
         <v>11</v>
       </c>
       <c r="Y3" s="32">
@@ -1853,48 +1879,48 @@
       <c r="Z3" s="32">
         <v>5.25</v>
       </c>
-      <c r="AA3" s="48">
+      <c r="AA3" s="47">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
+    <row r="4" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>1669046400</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>10230533</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="47">
         <v>1043</v>
       </c>
-      <c r="F4" s="48">
-        <v>0</v>
-      </c>
-      <c r="G4" s="48">
+      <c r="F4" s="47">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47">
         <v>0</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="47">
         <v>36</v>
       </c>
-      <c r="J4" s="48">
-        <v>0</v>
-      </c>
-      <c r="K4" s="48">
+      <c r="J4" s="47">
+        <v>0</v>
+      </c>
+      <c r="K4" s="47">
         <v>0</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="47">
         <v>1</v>
       </c>
       <c r="N4" s="32">
@@ -1904,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="32">
-        <v>2.06</v>
-      </c>
-      <c r="Q4" s="48">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>0.5</v>
       </c>
       <c r="R4" s="32">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="S4" s="32">
         <v>1.85</v>
@@ -1940,44 +1966,44 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
+    <row r="5" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="47">
         <v>4</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>1669057200</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>10230548</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="47">
         <v>37</v>
       </c>
-      <c r="F5" s="48">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48">
+      <c r="F5" s="47">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47">
         <v>0</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>7350</v>
       </c>
-      <c r="J5" s="48">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48">
+      <c r="J5" s="47">
+        <v>0</v>
+      </c>
+      <c r="K5" s="47">
         <v>0</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="47">
         <v>1</v>
       </c>
       <c r="N5" s="32">
@@ -1987,22 +2013,22 @@
         <v>0</v>
       </c>
       <c r="P5" s="32">
-        <v>1.88</v>
-      </c>
-      <c r="Q5" s="48">
-        <v>1</v>
+        <v>1.6</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>0.5</v>
       </c>
       <c r="R5" s="32">
-        <v>2.11</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="S5" s="32">
-        <v>1.9</v>
-      </c>
-      <c r="T5" s="48">
-        <v>2</v>
+        <v>1.55</v>
+      </c>
+      <c r="T5" s="47">
+        <v>1.5</v>
       </c>
       <c r="U5" s="32">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="V5" s="32">
         <v>3.32</v>
@@ -2010,7 +2036,7 @@
       <c r="W5" s="32">
         <v>2.06</v>
       </c>
-      <c r="X5" s="48">
+      <c r="X5" s="47">
         <v>4</v>
       </c>
       <c r="Y5" s="32">
@@ -2023,44 +2049,44 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="48">
+    <row r="6" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>1669111200</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>10230528</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="47">
         <v>24</v>
       </c>
-      <c r="F6" s="48">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47">
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="47">
         <v>1489</v>
       </c>
-      <c r="J6" s="48">
-        <v>0</v>
-      </c>
-      <c r="K6" s="48">
+      <c r="J6" s="47">
+        <v>0</v>
+      </c>
+      <c r="K6" s="47">
         <v>0</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <v>1</v>
       </c>
       <c r="N6" s="32">
@@ -2070,22 +2096,22 @@
         <v>0</v>
       </c>
       <c r="P6" s="32">
-        <v>2.21</v>
+        <v>2.59</v>
       </c>
       <c r="Q6" s="32">
         <v>1.5</v>
       </c>
       <c r="R6" s="32">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="S6" s="32">
-        <v>1.94</v>
-      </c>
-      <c r="T6" s="48">
-        <v>3</v>
-      </c>
-      <c r="U6" s="48">
-        <v>2</v>
+        <v>1.69</v>
+      </c>
+      <c r="T6" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="U6" s="47">
+        <v>2.35</v>
       </c>
       <c r="V6" s="32">
         <v>1.65</v>
@@ -2102,48 +2128,48 @@
       <c r="Z6" s="32">
         <v>8.1</v>
       </c>
-      <c r="AA6" s="48">
+      <c r="AA6" s="47">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="48">
+    <row r="7" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="47">
         <v>6</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="47">
         <v>1669122000</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>10230576</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="47">
         <v>50</v>
       </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="47">
         <v>0</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="47">
         <v>56</v>
       </c>
-      <c r="J7" s="48">
-        <v>0</v>
-      </c>
-      <c r="K7" s="48">
+      <c r="J7" s="47">
+        <v>0</v>
+      </c>
+      <c r="K7" s="47">
         <v>0</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="47">
         <v>1</v>
       </c>
       <c r="N7" s="32">
@@ -2153,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="P7" s="32">
-        <v>2.14</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>1</v>
+        <v>1.48</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>0.5</v>
       </c>
       <c r="R7" s="32">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="S7" s="32">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T7" s="32">
         <v>2.5</v>
       </c>
-      <c r="U7" s="48">
-        <v>2.1</v>
+      <c r="U7" s="47">
+        <v>2.78</v>
       </c>
       <c r="V7" s="32">
         <v>2.2000000000000002</v>
@@ -2185,48 +2211,48 @@
       <c r="Z7" s="32">
         <v>4.7</v>
       </c>
-      <c r="AA7" s="48">
+      <c r="AA7" s="47">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48">
+    <row r="8" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="47">
         <v>7</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="47">
         <v>1669132800</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>10230565</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="47">
         <v>6</v>
       </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="48">
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47">
         <v>0</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="47">
         <v>7463</v>
       </c>
-      <c r="J8" s="48">
-        <v>0</v>
-      </c>
-      <c r="K8" s="48">
+      <c r="J8" s="47">
+        <v>0</v>
+      </c>
+      <c r="K8" s="47">
         <v>0</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="47">
         <v>1</v>
       </c>
       <c r="N8" s="32">
@@ -2238,20 +2264,20 @@
       <c r="P8" s="32">
         <v>1.78</v>
       </c>
-      <c r="Q8" s="32">
-        <v>1</v>
+      <c r="Q8" s="47">
+        <v>0.5</v>
       </c>
       <c r="R8" s="32">
-        <v>2.16</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="S8" s="32">
-        <v>1.06</v>
+        <v>2.5</v>
       </c>
       <c r="T8" s="32">
         <v>2.5</v>
       </c>
-      <c r="U8" s="48">
-        <v>1.87</v>
+      <c r="U8" s="47">
+        <v>1.6</v>
       </c>
       <c r="V8" s="32">
         <v>3.64</v>
@@ -2272,44 +2298,44 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="48">
+    <row r="9" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="47">
         <v>8</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="47">
         <v>1669143600</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>10230563</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="47">
         <v>22</v>
       </c>
-      <c r="F9" s="48">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
+      <c r="F9" s="47">
+        <v>0</v>
+      </c>
+      <c r="G9" s="47">
         <v>0</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="47">
         <v>11</v>
       </c>
-      <c r="J9" s="48">
-        <v>0</v>
-      </c>
-      <c r="K9" s="48">
+      <c r="J9" s="47">
+        <v>0</v>
+      </c>
+      <c r="K9" s="47">
         <v>0</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="47">
         <v>1</v>
       </c>
       <c r="N9" s="32">
@@ -2328,13 +2354,13 @@
         <v>1.85</v>
       </c>
       <c r="S9" s="32">
-        <v>1.88</v>
-      </c>
-      <c r="T9" s="48">
-        <v>3</v>
-      </c>
-      <c r="U9" s="48">
-        <v>2.04</v>
+        <v>1.73</v>
+      </c>
+      <c r="T9" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="U9" s="47">
+        <v>2.33</v>
       </c>
       <c r="V9" s="32">
         <v>1.72</v>
@@ -2351,7 +2377,7 @@
       <c r="Z9" s="32">
         <v>6.7</v>
       </c>
-      <c r="AA9" s="48">
+      <c r="AA9" s="47">
         <v>14</v>
       </c>
     </row>
@@ -2383,10 +2409,10 @@
       <c r="I10" s="31">
         <v>5</v>
       </c>
-      <c r="J10" s="48">
-        <v>0</v>
-      </c>
-      <c r="K10" s="48">
+      <c r="J10" s="47">
+        <v>0</v>
+      </c>
+      <c r="K10" s="47">
         <v>0</v>
       </c>
       <c r="L10" s="32" t="s">
@@ -2485,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="P11" s="32">
-        <v>2.2000000000000002</v>
+        <v>2.76</v>
       </c>
       <c r="Q11" s="32">
         <v>1.5</v>
       </c>
       <c r="R11" s="32">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="S11" s="32">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="T11" s="31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11" s="31">
-        <v>2.0299999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="V11" s="32">
         <v>2.04</v>
@@ -2568,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="P12" s="32">
-        <v>1.81</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q12" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R12" s="32">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="S12" s="32">
-        <v>2.11</v>
+        <v>2.85</v>
       </c>
       <c r="T12" s="31">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U12" s="31">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="V12" s="32">
         <v>1.7</v>
@@ -2651,22 +2677,22 @@
         <v>0</v>
       </c>
       <c r="P13" s="32">
-        <v>1.8</v>
+        <v>2.79</v>
       </c>
       <c r="Q13" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R13" s="32">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="S13" s="32">
-        <v>2.0299999999999998</v>
+        <v>1.82</v>
       </c>
       <c r="T13" s="31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U13" s="31">
-        <v>1.97</v>
+        <v>2.13</v>
       </c>
       <c r="V13" s="32">
         <v>1.96</v>
@@ -2734,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="32">
-        <v>1.9</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>1</v>
+        <v>1.55</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>0.5</v>
       </c>
       <c r="R14" s="32">
-        <v>2.06</v>
+        <v>2.6</v>
       </c>
       <c r="S14" s="32">
-        <v>1.91</v>
+        <v>1.46</v>
       </c>
       <c r="T14" s="31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U14" s="31">
-        <v>2.0699999999999998</v>
+        <v>2.98</v>
       </c>
       <c r="V14" s="32">
         <v>2.61</v>
@@ -2819,8 +2845,8 @@
       <c r="P15" s="32">
         <v>1.83</v>
       </c>
-      <c r="Q15" s="32">
-        <v>1</v>
+      <c r="Q15" s="31">
+        <v>0.5</v>
       </c>
       <c r="R15" s="32">
         <v>2.12</v>
@@ -2900,22 +2926,22 @@
         <v>0</v>
       </c>
       <c r="P16" s="32">
-        <v>2.2000000000000002</v>
+        <v>3.29</v>
       </c>
       <c r="Q16" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R16" s="32">
-        <v>1.78</v>
+        <v>1.4</v>
       </c>
       <c r="S16" s="32">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="T16" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U16" s="31">
-        <v>2.0299999999999998</v>
+        <v>1.82</v>
       </c>
       <c r="V16" s="32">
         <v>2.08</v>
@@ -2983,22 +3009,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="32">
-        <v>1.9</v>
+        <v>2.83</v>
       </c>
       <c r="Q17" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R17" s="32">
-        <v>2.0499999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="S17" s="32">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T17" s="31">
         <v>2.5</v>
       </c>
       <c r="U17" s="31">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="V17" s="32">
         <v>2.11</v>
@@ -3075,13 +3101,13 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="S18" s="32">
-        <v>1.89</v>
+        <v>2.65</v>
       </c>
       <c r="T18" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U18" s="31">
-        <v>2.0099999999999998</v>
+        <v>1.57</v>
       </c>
       <c r="V18" s="32">
         <v>3.03</v>
@@ -3115,7 +3141,7 @@
       <c r="D19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="47">
         <v>7643</v>
       </c>
       <c r="F19" s="31">
@@ -3127,7 +3153,7 @@
       <c r="H19" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="47">
         <v>1043</v>
       </c>
       <c r="J19" s="31">
@@ -3149,22 +3175,22 @@
         <v>0</v>
       </c>
       <c r="P19" s="31">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="32">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="S19" s="32">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="T19" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U19" s="31">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="V19" s="31">
         <v>4.6399999999999997</v>
@@ -3198,7 +3224,7 @@
       <c r="D20" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="47">
         <v>36</v>
       </c>
       <c r="F20" s="31">
@@ -3210,7 +3236,7 @@
       <c r="H20" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>21</v>
       </c>
       <c r="J20" s="31">
@@ -3232,13 +3258,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="31">
-        <v>1.92</v>
+        <v>2.92</v>
       </c>
       <c r="Q20" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R20" s="32">
-        <v>2.06</v>
+        <v>1.44</v>
       </c>
       <c r="S20" s="32">
         <v>1.9</v>
@@ -3281,7 +3307,7 @@
       <c r="D21" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="47">
         <v>16</v>
       </c>
       <c r="F21" s="31">
@@ -3293,7 +3319,7 @@
       <c r="H21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="47">
         <v>37</v>
       </c>
       <c r="J21" s="31">
@@ -3315,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="31">
-        <v>2.0499999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="Q21" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R21" s="32">
-        <v>1.87</v>
+        <v>2.85</v>
       </c>
       <c r="S21" s="32">
         <v>2.1</v>
@@ -3398,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="P22" s="31">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="Q22" s="32">
         <v>0.5</v>
       </c>
       <c r="R22" s="32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S22" s="32">
-        <v>1.97</v>
+        <v>1.49</v>
       </c>
       <c r="T22" s="31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U22" s="31">
-        <v>1.96</v>
+        <v>2.82</v>
       </c>
       <c r="V22" s="31">
         <v>3.8</v>
@@ -3481,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="31">
-        <v>2.09</v>
+        <v>1.47</v>
       </c>
       <c r="Q23" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R23" s="32">
-        <v>1.85</v>
+        <v>2.85</v>
       </c>
       <c r="S23" s="32">
         <v>2.09</v>
@@ -3573,13 +3599,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="S24" s="32">
-        <v>2.08</v>
+        <v>2.35</v>
       </c>
       <c r="T24" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U24" s="31">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="V24" s="31">
         <v>2.79</v>
@@ -3647,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="31">
-        <v>2.17</v>
+        <v>3.22</v>
       </c>
       <c r="Q25" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R25" s="32">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="S25" s="32">
         <v>1.94</v>
@@ -3730,19 +3756,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="31">
-        <v>1.85</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>0.5</v>
       </c>
       <c r="R26" s="32">
-        <v>2.13</v>
+        <v>2.65</v>
       </c>
       <c r="S26" s="32">
         <v>2.0499999999999998</v>
       </c>
       <c r="T26" s="31">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="U26" s="31">
         <v>1.85</v>
@@ -3813,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="31">
-        <v>1.94</v>
-      </c>
-      <c r="Q27" s="31">
-        <v>1</v>
+        <v>2.85</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>1.5</v>
       </c>
       <c r="R27" s="32">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="S27" s="32">
         <v>1.96</v>
@@ -3896,22 +3922,22 @@
         <v>0</v>
       </c>
       <c r="P28" s="31">
-        <v>2.16</v>
-      </c>
-      <c r="Q28" s="31">
-        <v>1</v>
+        <v>1.47</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0.5</v>
       </c>
       <c r="R28" s="32">
-        <v>1.83</v>
+        <v>2.83</v>
       </c>
       <c r="S28" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="T28" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="U28" s="31">
         <v>1.84</v>
-      </c>
-      <c r="T28" s="31">
-        <v>2</v>
-      </c>
-      <c r="U28" s="31">
-        <v>2.0699999999999998</v>
       </c>
       <c r="V28" s="31">
         <v>2.54</v>
@@ -3979,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="Q29" s="31">
-        <v>1</v>
+        <v>1.43</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0.5</v>
       </c>
       <c r="R29" s="32">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="S29" s="32">
         <v>1.99</v>
@@ -4071,13 +4097,13 @@
         <v>2.08</v>
       </c>
       <c r="S30" s="32">
-        <v>1.87</v>
+        <v>1.48</v>
       </c>
       <c r="T30" s="31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U30" s="31">
-        <v>2.11</v>
+        <v>2.95</v>
       </c>
       <c r="V30" s="31">
         <v>5.55</v>
@@ -4145,22 +4171,22 @@
         <v>0</v>
       </c>
       <c r="P31" s="31">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="Q31" s="31">
         <v>0.5</v>
       </c>
       <c r="R31" s="31">
-        <v>2</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="S31" s="32">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="T31" s="31">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U31" s="31">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="V31" s="31">
         <v>3.52</v>
@@ -4228,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="Q32" s="31">
-        <v>1</v>
+        <v>3.04</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>1.5</v>
       </c>
       <c r="R32" s="31">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="S32" s="32">
         <v>1.96</v>
@@ -4311,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="P33" s="31">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="Q33" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R33" s="31">
-        <v>2.23</v>
+        <v>2.7</v>
       </c>
       <c r="S33" s="32">
-        <v>2.0299999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="T33" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U33" s="31">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="V33" s="31">
         <v>2.85</v>
@@ -4394,13 +4420,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="31">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R34" s="31">
-        <v>2.16</v>
+        <v>2.63</v>
       </c>
       <c r="S34" s="32">
         <v>1.96</v>
@@ -4486,13 +4512,13 @@
         <v>1.7</v>
       </c>
       <c r="S35" s="32">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="T35" s="31">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U35" s="31">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="V35" s="31">
         <v>1.83</v>
@@ -4560,13 +4586,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="31">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="Q36" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R36" s="31">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="S36" s="32">
         <v>1.99</v>
@@ -4652,13 +4678,13 @@
         <v>3</v>
       </c>
       <c r="S37" s="32">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="T37" s="31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U37" s="31">
-        <v>2.75</v>
+        <v>1.9</v>
       </c>
       <c r="V37" s="31">
         <v>6.35</v>
@@ -4809,22 +4835,22 @@
         <v>0</v>
       </c>
       <c r="P39" s="31">
-        <v>1.87</v>
+        <v>2.85</v>
       </c>
       <c r="Q39" s="31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R39" s="31">
-        <v>2.0299999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="S39" s="32">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T39" s="31">
         <v>2.5</v>
       </c>
       <c r="U39" s="31">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V39" s="31">
         <v>13</v>
@@ -4975,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="31">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="Q41" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R41" s="31">
-        <v>1.97</v>
+        <v>2.97</v>
       </c>
       <c r="S41" s="32">
         <v>2.0499999999999998</v>
@@ -5058,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="31">
-        <v>2.1800000000000002</v>
+        <v>1.52</v>
       </c>
       <c r="Q42" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R42" s="31">
         <v>1.74</v>
@@ -5226,8 +5252,8 @@
       <c r="P44" s="31">
         <v>1.67</v>
       </c>
-      <c r="Q44" s="31">
-        <v>1</v>
+      <c r="Q44" s="32">
+        <v>0.5</v>
       </c>
       <c r="R44" s="31">
         <v>2.25</v>
@@ -5307,22 +5333,22 @@
         <v>0</v>
       </c>
       <c r="P45" s="31">
-        <v>1.31</v>
+        <v>2.67</v>
       </c>
       <c r="Q45" s="31">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R45" s="31">
+        <v>1.53</v>
+      </c>
+      <c r="S45" s="32">
+        <v>2.98</v>
+      </c>
+      <c r="T45" s="31">
         <v>3.5</v>
       </c>
-      <c r="S45" s="32">
-        <v>2.06</v>
-      </c>
-      <c r="T45" s="31">
-        <v>3</v>
-      </c>
       <c r="U45" s="31">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="V45" s="31">
         <v>8.5</v>
@@ -5390,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="31">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Q46" s="31">
-        <v>1</v>
+        <v>1.49</v>
+      </c>
+      <c r="Q46" s="32">
+        <v>0.5</v>
       </c>
       <c r="R46" s="31">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="S46" s="32">
         <v>2.17</v>
@@ -5473,13 +5499,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="31">
-        <v>1.88</v>
+        <v>2.88</v>
       </c>
       <c r="Q47" s="31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R47" s="31">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="S47" s="32">
         <v>1.98</v>
@@ -5565,13 +5591,13 @@
         <v>1.53</v>
       </c>
       <c r="S48" s="32">
-        <v>2.23</v>
+        <v>1.78</v>
       </c>
       <c r="T48" s="31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U48" s="31">
-        <v>1.78</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V48" s="31">
         <v>8.9</v>
@@ -5639,13 +5665,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="31">
-        <v>1.97</v>
-      </c>
-      <c r="Q49" s="31">
-        <v>1</v>
+        <v>1.48</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>0.5</v>
       </c>
       <c r="R49" s="31">
-        <v>1.93</v>
+        <v>2.75</v>
       </c>
       <c r="S49" s="32">
         <v>2.04</v>
@@ -5704,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -5780,65 +5806,65 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34" t="s">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -5870,7 +5896,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5904,7 +5930,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5928,7 +5954,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5954,7 +5980,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -5982,7 +6008,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
@@ -6009,7 +6035,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +6062,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -6063,7 +6089,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
@@ -6096,7 +6122,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="38" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -6121,7 +6147,7 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -6144,7 +6170,7 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6193,7 @@
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="20" t="s">
         <v>1</v>
       </c>

--- a/add-matchs-tool/data/round_table_matchs1.xlsx
+++ b/add-matchs-tool/data/round_table_matchs1.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenkhoa/Desktop/firebird/testnet-minigame/add-matchs-tool/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5161221-5F9A-6C40-B840-50C8090D5B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFCA0E3-8F70-C347-8B01-B60217F68CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1100" windowWidth="38400" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
-    <sheet name="Round table" sheetId="1" r:id="rId3"/>
-    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="test" sheetId="4" r:id="rId1"/>
+    <sheet name="Round table" sheetId="1" r:id="rId2"/>
+    <sheet name="Sumary" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
-    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="2" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_BE3B438B_38A7_4CD8_8BE7_9E446A9B2CDC_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
+    <definedName name="Z_EE2F20B3_2CAB_4FD8_97BE_93C792EE71D7_.wvu.FilterData" localSheetId="1" hidden="1">'Round table'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
   <si>
     <t>Type</t>
   </si>
@@ -468,19 +467,28 @@
     <t>SERBIA</t>
   </si>
   <si>
-    <t>Trang admin</t>
+    <t>NEW ZEALAND</t>
   </si>
   <si>
-    <t>Api log FE error</t>
+    <t>HENAN</t>
   </si>
   <si>
-    <t>Xem history của người chơi khác</t>
+    <t>SHANDONG</t>
   </si>
   <si>
-    <t>Leaderborad history responsive</t>
+    <t>SHAANXI CHANG</t>
   </si>
   <si>
-    <t>Fix bug invaid nonce</t>
+    <t>JIANGSU</t>
+  </si>
+  <si>
+    <t>WUHAN</t>
+  </si>
+  <si>
+    <t>SHANGHAI</t>
+  </si>
+  <si>
+    <t>THAILAND</t>
   </si>
 </sst>
 </file>
@@ -809,6 +817,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,7 +851,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,14 +1065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902AC12-1A76-1B44-AEED-7468B00A6025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7397E85-945B-0546-BEFA-D5BE54DFF40F}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" s="30" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
@@ -1149,45 +1166,45 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47">
-        <v>101</v>
-      </c>
-      <c r="B2" s="47">
-        <v>1668960000</v>
-      </c>
-      <c r="C2" s="47">
-        <v>10230541</v>
+    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
+        <v>35</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1668488400</v>
+      </c>
+      <c r="C2" s="48">
+        <v>10859947</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="47">
-        <v>7643</v>
-      </c>
-      <c r="F2" s="47">
-        <v>0</v>
-      </c>
-      <c r="G2" s="47">
+        <v>141</v>
+      </c>
+      <c r="E2" s="48">
+        <v>56746</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
         <v>0</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="47">
-        <v>21</v>
-      </c>
-      <c r="J2" s="47">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47">
+        <v>136</v>
+      </c>
+      <c r="I2" s="48">
+        <v>11</v>
+      </c>
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
         <v>0</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>103</v>
       </c>
       <c r="M2" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" s="32">
         <v>0</v>
@@ -1232,60 +1249,60 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47">
-        <v>102</v>
-      </c>
-      <c r="B3" s="47">
-        <v>1669035600</v>
-      </c>
-      <c r="C3" s="47">
-        <v>10230543</v>
+    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
+        <v>36</v>
+      </c>
+      <c r="B3" s="48">
+        <v>1668492000</v>
+      </c>
+      <c r="C3" s="48">
+        <v>10853471</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="47">
-        <v>16</v>
-      </c>
-      <c r="F3" s="47">
-        <v>0</v>
-      </c>
-      <c r="G3" s="47">
+        <v>142</v>
+      </c>
+      <c r="E3" s="48">
+        <v>39121</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="47">
-        <v>28</v>
-      </c>
-      <c r="J3" s="47">
-        <v>0</v>
-      </c>
-      <c r="K3" s="47">
+        <v>143</v>
+      </c>
+      <c r="I3" s="48">
+        <v>80691</v>
+      </c>
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
         <v>0</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="32">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32">
+        <v>0</v>
+      </c>
+      <c r="O3" s="32">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>2.12</v>
+      </c>
+      <c r="Q3" s="48">
         <v>1</v>
       </c>
-      <c r="N3" s="32">
-        <v>0</v>
-      </c>
-      <c r="O3" s="32">
-        <v>0</v>
-      </c>
-      <c r="P3" s="32">
-        <v>1.56</v>
-      </c>
-      <c r="Q3" s="47">
-        <v>0.5</v>
-      </c>
       <c r="R3" s="32">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="S3" s="32">
         <v>2.09</v>
@@ -1302,73 +1319,73 @@
       <c r="W3" s="32">
         <v>2.4</v>
       </c>
-      <c r="X3" s="47">
+      <c r="X3" s="48">
         <v>11</v>
       </c>
       <c r="Y3" s="32">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="Z3" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="AA3" s="48">
         <v>5.25</v>
       </c>
-      <c r="AA3" s="47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47">
-        <v>103</v>
-      </c>
-      <c r="B4" s="47">
-        <v>1669046400</v>
-      </c>
-      <c r="C4" s="47">
-        <v>10230533</v>
+    </row>
+    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
+        <v>37</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1668492000</v>
+      </c>
+      <c r="C4" s="48">
+        <v>10853472</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="47">
-        <v>1043</v>
-      </c>
-      <c r="F4" s="47">
-        <v>0</v>
-      </c>
-      <c r="G4" s="47">
+        <v>144</v>
+      </c>
+      <c r="E4" s="48">
+        <v>5448</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
         <v>0</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="47">
-        <v>36</v>
-      </c>
-      <c r="J4" s="47">
-        <v>0</v>
-      </c>
-      <c r="K4" s="47">
+        <v>145</v>
+      </c>
+      <c r="I4" s="48">
+        <v>20772</v>
+      </c>
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
         <v>0</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="32">
+        <v>3</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>2.06</v>
+      </c>
+      <c r="Q4" s="48">
         <v>1</v>
       </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" s="47">
-        <v>0.5</v>
-      </c>
       <c r="R4" s="32">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="S4" s="32">
         <v>1.85</v>
@@ -1380,87 +1397,87 @@
         <v>2.09</v>
       </c>
       <c r="V4" s="32">
-        <v>6.03</v>
+        <v>4.03</v>
       </c>
       <c r="W4" s="32">
         <v>2.25</v>
       </c>
       <c r="X4" s="32">
-        <v>2.3199999999999998</v>
+        <v>3.32</v>
       </c>
       <c r="Y4" s="32">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="Z4" s="32">
         <v>3.92</v>
       </c>
       <c r="AA4" s="32">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47">
-        <v>104</v>
-      </c>
-      <c r="B5" s="47">
-        <v>1669057200</v>
-      </c>
-      <c r="C5" s="47">
-        <v>10230548</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
+        <v>38</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1668499200</v>
+      </c>
+      <c r="C5" s="48">
+        <v>10853518</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="47">
-        <v>37</v>
-      </c>
-      <c r="F5" s="47">
-        <v>0</v>
-      </c>
-      <c r="G5" s="47">
+        <v>146</v>
+      </c>
+      <c r="E5" s="48">
+        <v>5448</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
         <v>0</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="47">
-        <v>7350</v>
-      </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-      <c r="K5" s="47">
+        <v>147</v>
+      </c>
+      <c r="I5" s="48">
+        <v>20772</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
         <v>0</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="32">
+        <v>3</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>1.88</v>
+      </c>
+      <c r="Q5" s="48">
         <v>1</v>
       </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>0.5</v>
-      </c>
       <c r="R5" s="32">
-        <v>2.4500000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="S5" s="32">
-        <v>1.55</v>
-      </c>
-      <c r="T5" s="47">
-        <v>1.5</v>
+        <v>1.9</v>
+      </c>
+      <c r="T5" s="48">
+        <v>2</v>
       </c>
       <c r="U5" s="32">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="V5" s="32">
         <v>3.32</v>
@@ -1468,7 +1485,7 @@
       <c r="W5" s="32">
         <v>2.06</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="48">
         <v>4</v>
       </c>
       <c r="Y5" s="32">
@@ -1481,87 +1498,87 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
-        <v>105</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1669111200</v>
-      </c>
-      <c r="C6" s="47">
-        <v>10230528</v>
+    <row r="6" spans="1:27" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31">
+        <v>39</v>
+      </c>
+      <c r="B6" s="31">
+        <v>1668501000</v>
+      </c>
+      <c r="C6" s="31">
+        <v>10728739</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="47">
-        <v>24</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47">
+        <v>123</v>
+      </c>
+      <c r="E6" s="32">
+        <v>11</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="47">
+        <v>148</v>
+      </c>
+      <c r="I6" s="31">
         <v>1489</v>
       </c>
-      <c r="J6" s="47">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47">
+      <c r="J6" s="31">
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
         <v>0</v>
       </c>
       <c r="L6" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="47">
+        <v>118</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="31">
+        <v>2.09</v>
+      </c>
+      <c r="Q6" s="32">
         <v>1</v>
       </c>
-      <c r="N6" s="32">
-        <v>0</v>
-      </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <v>2.59</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>1.5</v>
-      </c>
       <c r="R6" s="32">
-        <v>1.56</v>
+        <v>1.85</v>
       </c>
       <c r="S6" s="32">
-        <v>1.69</v>
-      </c>
-      <c r="T6" s="47">
+        <v>2.09</v>
+      </c>
+      <c r="T6" s="31">
         <v>2.5</v>
       </c>
-      <c r="U6" s="47">
-        <v>2.35</v>
-      </c>
-      <c r="V6" s="32">
-        <v>1.65</v>
+      <c r="U6" s="31">
+        <v>1.88</v>
+      </c>
+      <c r="V6" s="31">
+        <v>2.3199999999999998</v>
       </c>
       <c r="W6" s="32">
-        <v>2.87</v>
+        <v>2.27</v>
       </c>
       <c r="X6" s="32">
-        <v>13.12</v>
+        <v>5.85</v>
       </c>
       <c r="Y6" s="32">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="Z6" s="32">
-        <v>8.1</v>
-      </c>
-      <c r="AA6" s="47">
-        <v>23</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -1570,49 +1587,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEC6845-7DF7-BD41-A648-C34CD983C22E}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="87.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1620,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1717,38 +1691,38 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47">
+    <row r="2" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="48">
         <v>1668960000</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="48">
         <v>10230541</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="48">
         <v>7643</v>
       </c>
-      <c r="F2" s="47">
-        <v>0</v>
-      </c>
-      <c r="G2" s="47">
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
         <v>0</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="48">
         <v>21</v>
       </c>
-      <c r="J2" s="47">
-        <v>0</v>
-      </c>
-      <c r="K2" s="47">
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
         <v>0</v>
       </c>
       <c r="L2" s="32" t="s">
@@ -1800,44 +1774,44 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47">
+    <row r="3" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48">
         <v>2</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="48">
         <v>1669035600</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="48">
         <v>10230543</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="48">
         <v>16</v>
       </c>
-      <c r="F3" s="47">
-        <v>0</v>
-      </c>
-      <c r="G3" s="47">
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
         <v>0</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="48">
         <v>28</v>
       </c>
-      <c r="J3" s="47">
-        <v>0</v>
-      </c>
-      <c r="K3" s="47">
+      <c r="J3" s="48">
+        <v>0</v>
+      </c>
+      <c r="K3" s="48">
         <v>0</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="48">
         <v>1</v>
       </c>
       <c r="N3" s="32">
@@ -1847,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="32">
-        <v>1.56</v>
-      </c>
-      <c r="Q3" s="47">
-        <v>0.5</v>
+        <v>2.12</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>1</v>
       </c>
       <c r="R3" s="32">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="S3" s="32">
         <v>2.09</v>
@@ -1870,7 +1844,7 @@
       <c r="W3" s="32">
         <v>2.4</v>
       </c>
-      <c r="X3" s="47">
+      <c r="X3" s="48">
         <v>11</v>
       </c>
       <c r="Y3" s="32">
@@ -1879,48 +1853,48 @@
       <c r="Z3" s="32">
         <v>5.25</v>
       </c>
-      <c r="AA3" s="47">
+      <c r="AA3" s="48">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47">
+    <row r="4" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48">
         <v>3</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="48">
         <v>1669046400</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="48">
         <v>10230533</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="48">
         <v>1043</v>
       </c>
-      <c r="F4" s="47">
-        <v>0</v>
-      </c>
-      <c r="G4" s="47">
+      <c r="F4" s="48">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
         <v>0</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="48">
         <v>36</v>
       </c>
-      <c r="J4" s="47">
-        <v>0</v>
-      </c>
-      <c r="K4" s="47">
+      <c r="J4" s="48">
+        <v>0</v>
+      </c>
+      <c r="K4" s="48">
         <v>0</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="48">
         <v>1</v>
       </c>
       <c r="N4" s="32">
@@ -1930,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="Q4" s="47">
-        <v>0.5</v>
+        <v>2.06</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>1</v>
       </c>
       <c r="R4" s="32">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="S4" s="32">
         <v>1.85</v>
@@ -1966,44 +1940,44 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47">
+    <row r="5" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="48">
         <v>1669057200</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="48">
         <v>10230548</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="48">
         <v>37</v>
       </c>
-      <c r="F5" s="47">
-        <v>0</v>
-      </c>
-      <c r="G5" s="47">
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
         <v>0</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="48">
         <v>7350</v>
       </c>
-      <c r="J5" s="47">
-        <v>0</v>
-      </c>
-      <c r="K5" s="47">
+      <c r="J5" s="48">
+        <v>0</v>
+      </c>
+      <c r="K5" s="48">
         <v>0</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="48">
         <v>1</v>
       </c>
       <c r="N5" s="32">
@@ -2013,22 +1987,22 @@
         <v>0</v>
       </c>
       <c r="P5" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" s="47">
-        <v>0.5</v>
+        <v>1.88</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>1</v>
       </c>
       <c r="R5" s="32">
-        <v>2.4500000000000002</v>
+        <v>2.11</v>
       </c>
       <c r="S5" s="32">
-        <v>1.55</v>
-      </c>
-      <c r="T5" s="47">
-        <v>1.5</v>
+        <v>1.9</v>
+      </c>
+      <c r="T5" s="48">
+        <v>2</v>
       </c>
       <c r="U5" s="32">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="V5" s="32">
         <v>3.32</v>
@@ -2036,7 +2010,7 @@
       <c r="W5" s="32">
         <v>2.06</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="48">
         <v>4</v>
       </c>
       <c r="Y5" s="32">
@@ -2049,44 +2023,44 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
+    <row r="6" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="48">
         <v>1669111200</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="48">
         <v>10230528</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="48">
         <v>24</v>
       </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47">
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
         <v>0</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="48">
         <v>1489</v>
       </c>
-      <c r="J6" s="47">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47">
+      <c r="J6" s="48">
+        <v>0</v>
+      </c>
+      <c r="K6" s="48">
         <v>0</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="48">
         <v>1</v>
       </c>
       <c r="N6" s="32">
@@ -2096,22 +2070,22 @@
         <v>0</v>
       </c>
       <c r="P6" s="32">
-        <v>2.59</v>
+        <v>2.21</v>
       </c>
       <c r="Q6" s="32">
         <v>1.5</v>
       </c>
       <c r="R6" s="32">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="S6" s="32">
-        <v>1.69</v>
-      </c>
-      <c r="T6" s="47">
-        <v>2.5</v>
-      </c>
-      <c r="U6" s="47">
-        <v>2.35</v>
+        <v>1.94</v>
+      </c>
+      <c r="T6" s="48">
+        <v>3</v>
+      </c>
+      <c r="U6" s="48">
+        <v>2</v>
       </c>
       <c r="V6" s="32">
         <v>1.65</v>
@@ -2128,48 +2102,48 @@
       <c r="Z6" s="32">
         <v>8.1</v>
       </c>
-      <c r="AA6" s="47">
+      <c r="AA6" s="48">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
+    <row r="7" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <v>1669122000</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="48">
         <v>10230576</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="48">
         <v>50</v>
       </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="47">
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
         <v>0</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="48">
         <v>56</v>
       </c>
-      <c r="J7" s="47">
-        <v>0</v>
-      </c>
-      <c r="K7" s="47">
+      <c r="J7" s="48">
+        <v>0</v>
+      </c>
+      <c r="K7" s="48">
         <v>0</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="48">
         <v>1</v>
       </c>
       <c r="N7" s="32">
@@ -2179,22 +2153,22 @@
         <v>0</v>
       </c>
       <c r="P7" s="32">
-        <v>1.48</v>
-      </c>
-      <c r="Q7" s="47">
-        <v>0.5</v>
+        <v>2.14</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>1</v>
       </c>
       <c r="R7" s="32">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="S7" s="32">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="T7" s="32">
         <v>2.5</v>
       </c>
-      <c r="U7" s="47">
-        <v>2.78</v>
+      <c r="U7" s="48">
+        <v>2.1</v>
       </c>
       <c r="V7" s="32">
         <v>2.2000000000000002</v>
@@ -2211,48 +2185,48 @@
       <c r="Z7" s="32">
         <v>4.7</v>
       </c>
-      <c r="AA7" s="47">
+      <c r="AA7" s="48">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47">
+    <row r="8" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="48">
         <v>1669132800</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="48">
         <v>10230565</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="48">
         <v>6</v>
       </c>
-      <c r="F8" s="47">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47">
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <v>0</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="48">
         <v>7463</v>
       </c>
-      <c r="J8" s="47">
-        <v>0</v>
-      </c>
-      <c r="K8" s="47">
+      <c r="J8" s="48">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
         <v>0</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="48">
         <v>1</v>
       </c>
       <c r="N8" s="32">
@@ -2264,20 +2238,20 @@
       <c r="P8" s="32">
         <v>1.78</v>
       </c>
-      <c r="Q8" s="47">
-        <v>0.5</v>
+      <c r="Q8" s="32">
+        <v>1</v>
       </c>
       <c r="R8" s="32">
-        <v>2.5299999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="S8" s="32">
-        <v>2.5</v>
+        <v>1.06</v>
       </c>
       <c r="T8" s="32">
         <v>2.5</v>
       </c>
-      <c r="U8" s="47">
-        <v>1.6</v>
+      <c r="U8" s="48">
+        <v>1.87</v>
       </c>
       <c r="V8" s="32">
         <v>3.64</v>
@@ -2298,44 +2272,44 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47">
+    <row r="9" spans="1:27" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="48">
         <v>1669143600</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="48">
         <v>10230563</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="48">
         <v>22</v>
       </c>
-      <c r="F9" s="47">
-        <v>0</v>
-      </c>
-      <c r="G9" s="47">
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
         <v>0</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="48">
         <v>11</v>
       </c>
-      <c r="J9" s="47">
-        <v>0</v>
-      </c>
-      <c r="K9" s="47">
+      <c r="J9" s="48">
+        <v>0</v>
+      </c>
+      <c r="K9" s="48">
         <v>0</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="48">
         <v>1</v>
       </c>
       <c r="N9" s="32">
@@ -2354,13 +2328,13 @@
         <v>1.85</v>
       </c>
       <c r="S9" s="32">
-        <v>1.73</v>
-      </c>
-      <c r="T9" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="U9" s="47">
-        <v>2.33</v>
+        <v>1.88</v>
+      </c>
+      <c r="T9" s="48">
+        <v>3</v>
+      </c>
+      <c r="U9" s="48">
+        <v>2.04</v>
       </c>
       <c r="V9" s="32">
         <v>1.72</v>
@@ -2377,7 +2351,7 @@
       <c r="Z9" s="32">
         <v>6.7</v>
       </c>
-      <c r="AA9" s="47">
+      <c r="AA9" s="48">
         <v>14</v>
       </c>
     </row>
@@ -2409,10 +2383,10 @@
       <c r="I10" s="31">
         <v>5</v>
       </c>
-      <c r="J10" s="47">
-        <v>0</v>
-      </c>
-      <c r="K10" s="47">
+      <c r="J10" s="48">
+        <v>0</v>
+      </c>
+      <c r="K10" s="48">
         <v>0</v>
       </c>
       <c r="L10" s="32" t="s">
@@ -2511,22 +2485,22 @@
         <v>0</v>
       </c>
       <c r="P11" s="32">
-        <v>2.76</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q11" s="32">
         <v>1.5</v>
       </c>
       <c r="R11" s="32">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="S11" s="32">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="T11" s="31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11" s="31">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V11" s="32">
         <v>2.04</v>
@@ -2594,22 +2568,22 @@
         <v>0</v>
       </c>
       <c r="P12" s="32">
-        <v>2.2000000000000002</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R12" s="32">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="S12" s="32">
-        <v>2.85</v>
+        <v>2.11</v>
       </c>
       <c r="T12" s="31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U12" s="31">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="V12" s="32">
         <v>1.7</v>
@@ -2677,22 +2651,22 @@
         <v>0</v>
       </c>
       <c r="P13" s="32">
-        <v>2.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q13" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R13" s="32">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S13" s="32">
-        <v>1.82</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="T13" s="31">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13" s="31">
-        <v>2.13</v>
+        <v>1.97</v>
       </c>
       <c r="V13" s="32">
         <v>1.96</v>
@@ -2760,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="32">
-        <v>1.55</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>0.5</v>
+        <v>1.9</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>1</v>
       </c>
       <c r="R14" s="32">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="S14" s="32">
-        <v>1.46</v>
+        <v>1.91</v>
       </c>
       <c r="T14" s="31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U14" s="31">
-        <v>2.98</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="V14" s="32">
         <v>2.61</v>
@@ -2845,8 +2819,8 @@
       <c r="P15" s="32">
         <v>1.83</v>
       </c>
-      <c r="Q15" s="31">
-        <v>0.5</v>
+      <c r="Q15" s="32">
+        <v>1</v>
       </c>
       <c r="R15" s="32">
         <v>2.12</v>
@@ -2926,22 +2900,22 @@
         <v>0</v>
       </c>
       <c r="P16" s="32">
-        <v>3.29</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q16" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R16" s="32">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="S16" s="32">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="T16" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U16" s="31">
-        <v>1.82</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V16" s="32">
         <v>2.08</v>
@@ -3009,22 +2983,22 @@
         <v>0</v>
       </c>
       <c r="P17" s="32">
-        <v>2.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q17" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R17" s="32">
-        <v>1.5</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S17" s="32">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T17" s="31">
         <v>2.5</v>
       </c>
       <c r="U17" s="31">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="V17" s="32">
         <v>2.11</v>
@@ -3101,13 +3075,13 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="S18" s="32">
-        <v>2.65</v>
+        <v>1.89</v>
       </c>
       <c r="T18" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U18" s="31">
-        <v>1.57</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V18" s="32">
         <v>3.03</v>
@@ -3141,7 +3115,7 @@
       <c r="D19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="48">
         <v>7643</v>
       </c>
       <c r="F19" s="31">
@@ -3153,7 +3127,7 @@
       <c r="H19" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="48">
         <v>1043</v>
       </c>
       <c r="J19" s="31">
@@ -3175,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="P19" s="31">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="Q19" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R19" s="32">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="S19" s="32">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="T19" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U19" s="31">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="V19" s="31">
         <v>4.6399999999999997</v>
@@ -3224,7 +3198,7 @@
       <c r="D20" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="48">
         <v>36</v>
       </c>
       <c r="F20" s="31">
@@ -3236,7 +3210,7 @@
       <c r="H20" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="48">
         <v>21</v>
       </c>
       <c r="J20" s="31">
@@ -3258,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="31">
-        <v>2.92</v>
+        <v>1.92</v>
       </c>
       <c r="Q20" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R20" s="32">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="S20" s="32">
         <v>1.9</v>
@@ -3307,7 +3281,7 @@
       <c r="D21" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="48">
         <v>16</v>
       </c>
       <c r="F21" s="31">
@@ -3319,7 +3293,7 @@
       <c r="H21" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="48">
         <v>37</v>
       </c>
       <c r="J21" s="31">
@@ -3341,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="31">
-        <v>1.45</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Q21" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R21" s="32">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="S21" s="32">
         <v>2.1</v>
@@ -3424,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="P22" s="31">
-        <v>1.59</v>
+        <v>1.92</v>
       </c>
       <c r="Q22" s="32">
         <v>0.5</v>
       </c>
       <c r="R22" s="32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="S22" s="32">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="T22" s="31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U22" s="31">
-        <v>2.82</v>
+        <v>1.96</v>
       </c>
       <c r="V22" s="31">
         <v>3.8</v>
@@ -3507,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="P23" s="31">
-        <v>1.47</v>
+        <v>2.09</v>
       </c>
       <c r="Q23" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R23" s="32">
-        <v>2.85</v>
+        <v>1.85</v>
       </c>
       <c r="S23" s="32">
         <v>2.09</v>
@@ -3599,13 +3573,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="S24" s="32">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="T24" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U24" s="31">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="V24" s="31">
         <v>2.79</v>
@@ -3673,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="31">
-        <v>3.22</v>
+        <v>2.17</v>
       </c>
       <c r="Q25" s="32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R25" s="32">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="S25" s="32">
         <v>1.94</v>
@@ -3756,19 +3730,19 @@
         <v>0</v>
       </c>
       <c r="P26" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="Q26" s="32">
-        <v>0.5</v>
+        <v>1.85</v>
+      </c>
+      <c r="Q26" s="31">
+        <v>1</v>
       </c>
       <c r="R26" s="32">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="S26" s="32">
         <v>2.0499999999999998</v>
       </c>
       <c r="T26" s="31">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="U26" s="31">
         <v>1.85</v>
@@ -3839,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="31">
-        <v>2.85</v>
-      </c>
-      <c r="Q27" s="32">
-        <v>1.5</v>
+        <v>1.94</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>1</v>
       </c>
       <c r="R27" s="32">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="S27" s="32">
         <v>1.96</v>
@@ -3922,22 +3896,22 @@
         <v>0</v>
       </c>
       <c r="P28" s="31">
-        <v>1.47</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>0.5</v>
+        <v>2.16</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>1</v>
       </c>
       <c r="R28" s="32">
-        <v>2.83</v>
+        <v>1.83</v>
       </c>
       <c r="S28" s="32">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="T28" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U28" s="31">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="V28" s="31">
         <v>2.54</v>
@@ -4005,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="31">
-        <v>1.43</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>0.5</v>
+        <v>1.97</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1</v>
       </c>
       <c r="R29" s="32">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="S29" s="32">
         <v>1.99</v>
@@ -4097,13 +4071,13 @@
         <v>2.08</v>
       </c>
       <c r="S30" s="32">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="T30" s="31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U30" s="31">
-        <v>2.95</v>
+        <v>2.11</v>
       </c>
       <c r="V30" s="31">
         <v>5.55</v>
@@ -4171,22 +4145,22 @@
         <v>0</v>
       </c>
       <c r="P31" s="31">
-        <v>1.61</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" s="31">
         <v>0.5</v>
       </c>
       <c r="R31" s="31">
-        <v>2.4700000000000002</v>
+        <v>2</v>
       </c>
       <c r="S31" s="32">
-        <v>1.54</v>
+        <v>1.97</v>
       </c>
       <c r="T31" s="31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U31" s="31">
-        <v>2.69</v>
+        <v>1.96</v>
       </c>
       <c r="V31" s="31">
         <v>3.52</v>
@@ -4254,13 +4228,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="31">
-        <v>3.04</v>
-      </c>
-      <c r="Q32" s="32">
-        <v>1.5</v>
+        <v>1.97</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>1</v>
       </c>
       <c r="R32" s="31">
-        <v>1.45</v>
+        <v>1.94</v>
       </c>
       <c r="S32" s="32">
         <v>1.96</v>
@@ -4337,22 +4311,22 @@
         <v>0</v>
       </c>
       <c r="P33" s="31">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="Q33" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R33" s="31">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="S33" s="32">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="T33" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33" s="31">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="V33" s="31">
         <v>2.85</v>
@@ -4420,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="31">
-        <v>1.53</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R34" s="31">
-        <v>2.63</v>
+        <v>2.16</v>
       </c>
       <c r="S34" s="32">
         <v>1.96</v>
@@ -4512,13 +4486,13 @@
         <v>1.7</v>
       </c>
       <c r="S35" s="32">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="T35" s="31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U35" s="31">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="V35" s="31">
         <v>1.83</v>
@@ -4586,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="P36" s="31">
-        <v>1.49</v>
+        <v>1.95</v>
       </c>
       <c r="Q36" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R36" s="31">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="S36" s="32">
         <v>1.99</v>
@@ -4678,13 +4652,13 @@
         <v>3</v>
       </c>
       <c r="S37" s="32">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="T37" s="31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U37" s="31">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="V37" s="31">
         <v>6.35</v>
@@ -4835,22 +4809,22 @@
         <v>0</v>
       </c>
       <c r="P39" s="31">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" s="31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R39" s="31">
-        <v>1.45</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="S39" s="32">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T39" s="31">
         <v>2.5</v>
       </c>
       <c r="U39" s="31">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V39" s="31">
         <v>13</v>
@@ -5001,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="31">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="Q41" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R41" s="31">
-        <v>2.97</v>
+        <v>1.97</v>
       </c>
       <c r="S41" s="32">
         <v>2.0499999999999998</v>
@@ -5084,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="P42" s="31">
-        <v>1.52</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="Q42" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R42" s="31">
         <v>1.74</v>
@@ -5252,8 +5226,8 @@
       <c r="P44" s="31">
         <v>1.67</v>
       </c>
-      <c r="Q44" s="32">
-        <v>0.5</v>
+      <c r="Q44" s="31">
+        <v>1</v>
       </c>
       <c r="R44" s="31">
         <v>2.25</v>
@@ -5333,22 +5307,22 @@
         <v>0</v>
       </c>
       <c r="P45" s="31">
-        <v>2.67</v>
+        <v>1.31</v>
       </c>
       <c r="Q45" s="31">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R45" s="31">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="S45" s="32">
-        <v>2.98</v>
+        <v>2.06</v>
       </c>
       <c r="T45" s="31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U45" s="31">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="V45" s="31">
         <v>8.5</v>
@@ -5416,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="31">
-        <v>1.49</v>
-      </c>
-      <c r="Q46" s="32">
-        <v>0.5</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q46" s="31">
+        <v>1</v>
       </c>
       <c r="R46" s="31">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="S46" s="32">
         <v>2.17</v>
@@ -5499,13 +5473,13 @@
         <v>0</v>
       </c>
       <c r="P47" s="31">
-        <v>2.88</v>
+        <v>1.88</v>
       </c>
       <c r="Q47" s="31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R47" s="31">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="S47" s="32">
         <v>1.98</v>
@@ -5591,13 +5565,13 @@
         <v>1.53</v>
       </c>
       <c r="S48" s="32">
+        <v>2.23</v>
+      </c>
+      <c r="T48" s="31">
+        <v>3</v>
+      </c>
+      <c r="U48" s="31">
         <v>1.78</v>
-      </c>
-      <c r="T48" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="U48" s="31">
-        <v>2.3199999999999998</v>
       </c>
       <c r="V48" s="31">
         <v>8.9</v>
@@ -5665,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="31">
-        <v>1.48</v>
-      </c>
-      <c r="Q49" s="32">
-        <v>0.5</v>
+        <v>1.97</v>
+      </c>
+      <c r="Q49" s="31">
+        <v>1</v>
       </c>
       <c r="R49" s="31">
-        <v>2.75</v>
+        <v>1.93</v>
       </c>
       <c r="S49" s="32">
         <v>2.04</v>
@@ -5730,7 +5704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -5806,65 +5780,65 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="7">
         <v>20</v>
       </c>
@@ -5896,7 +5870,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5930,7 +5904,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5954,7 +5928,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -5980,7 +5954,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -6008,7 +5982,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="9" t="s">
         <v>1</v>
       </c>
@@ -6035,7 +6009,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="37"/>
+      <c r="D15" s="38"/>
       <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
@@ -6062,7 +6036,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="9" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6063,7 @@
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="9" t="s">
         <v>1</v>
       </c>
@@ -6122,7 +6096,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -6147,7 +6121,7 @@
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="13" t="s">
         <v>13</v>
       </c>
@@ -6170,7 +6144,7 @@
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
@@ -6193,7 +6167,7 @@
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="20" t="s">
         <v>1</v>
       </c>
